--- a/raw_data/umd/2023/RL_2023-07-24_BBay.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-24_BBay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_24_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E324A72-5BAD-244E-B370-15D81F4D95C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610CB41-9DD9-E14B-8523-6DFA61473C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="3320" windowWidth="26040" windowHeight="14940" xr2:uid="{08E631E9-6F65-344A-9A8D-5B61A0B38EA9}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = BBay</t>
-  </si>
-  <si>
-    <t>Location ID = a6a0d220-1bc5-4f21-a916-6af978babc90</t>
-  </si>
-  <si>
-    <t>Latitude = 46.851383 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.17583 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-24 13:49:27</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:59</t>
-  </si>
-  <si>
-    <t>Readings = 60</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1011,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F08112-5B93-0342-BB5E-CAD1FD68C7F6}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,3396 +994,3301 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45131.576006944444</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10.176439999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8.3582780000000003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>96.171679999999995</v>
+      </c>
+      <c r="E2" s="3">
+        <v>103.91670000000001</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.869561E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99801079999999998</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.7520570000000002E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.59705419999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>21.100149999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7.0124619999999999E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.83213820000000005</v>
+      </c>
+      <c r="M2" s="3">
+        <v>6.3385839999999999E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1.117</v>
+      </c>
+      <c r="O2" s="3">
+        <v>996.51980000000003</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.847340320000001</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.179373069999997</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45131.576018518521</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10.33347</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.6485699999999994</v>
+      </c>
+      <c r="D3" s="3">
+        <v>96.137</v>
+      </c>
+      <c r="E3" s="3">
+        <v>103.9575</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.8715519999999998E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99801620000000002</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.7569260000000006E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.67868170000000005</v>
+      </c>
+      <c r="J3" s="3">
+        <v>21.097300000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>9.9777210000000005E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.86349509999999996</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7.1896559999999998E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.101785</v>
+      </c>
+      <c r="O3" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.847340320000001</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.179373069999997</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45131.57603009259</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.341049999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.6679010000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>96.135230000000007</v>
+      </c>
+      <c r="E4" s="3">
+        <v>103.9611</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.8717280000000002E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99801660000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.7572359999999998E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.68243410000000004</v>
+      </c>
+      <c r="J4" s="3">
+        <v>21.096039999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.1008522</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.86473270000000002</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7.2233110000000003E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.1009260000000001</v>
+      </c>
+      <c r="O4" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.847340320000001</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.179373069999997</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45131.576041666667</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10.34864</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.6872330000000009</v>
+      </c>
+      <c r="D5" s="3">
+        <v>96.133459999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>103.96469999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.8719039999999998E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99801700000000004</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.7575469999999999E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.68618650000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>21.09478</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.1019272</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.86597009999999996</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.2569670000000003E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.1000669999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.847331220000001</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.17936709</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45131.576053240744</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10.196809999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.5489200000000007</v>
+      </c>
+      <c r="D6" s="3">
+        <v>96.111109999999996</v>
+      </c>
+      <c r="E6" s="3">
+        <v>103.9361</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.8705150000000003E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99801899999999999</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.7557539999999999E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.66925849999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>21.0716</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.14884790000000001</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.97300719999999996</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.1051795</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.0996300000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.847331220000001</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.17936709</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45131.576064814813</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10.19172</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.5474800000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>96.109039999999993</v>
+      </c>
+      <c r="E7" s="3">
+        <v>103.9354</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.8704789999999998E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99801930000000005</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.7557610000000004E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.67016540000000002</v>
+      </c>
+      <c r="J7" s="3">
+        <v>21.070250000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.15221599999999999</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.97984420000000005</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.10723829999999999</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.099262</v>
+      </c>
+      <c r="O7" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.847331220000001</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.17936709</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45131.57607638889</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10.186640000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.5460399999999996</v>
+      </c>
+      <c r="D8" s="3">
+        <v>96.106970000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <v>103.9346</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.870443E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99801949999999995</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.7557679999999995E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.67107220000000001</v>
+      </c>
+      <c r="J8" s="3">
+        <v>21.06889</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.155584</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.98668129999999998</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.1092972</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.098894</v>
+      </c>
+      <c r="O8" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.847331220000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.17936709</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45131.57608796296</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10.212479999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.5282909999999994</v>
+      </c>
+      <c r="D9" s="3">
+        <v>96.176180000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>104.0048</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.8738450000000003E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.9980192</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.7453760000000001E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.59016170000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21.06156</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.63214349999999997</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3.0733799999999998</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.74540770000000001</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.099</v>
+      </c>
+      <c r="O9" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.847324919999998</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.179354459999999</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45131.576099537036</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10.2103</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.5239720000000005</v>
+      </c>
+      <c r="D10" s="3">
+        <v>96.179519999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>104.0081</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.8740020000000002E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.9980192</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.744754E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.58523170000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>21.06061</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.65978610000000004</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3.1921349999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.781609</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.099</v>
+      </c>
+      <c r="O10" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.847324919999998</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.179354459999999</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45131.576111111113</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10.208130000000001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.5196520000000007</v>
+      </c>
+      <c r="D11" s="3">
+        <v>96.182860000000005</v>
+      </c>
+      <c r="E11" s="3">
+        <v>104.01130000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.874158E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.9980192</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.7441319999999999E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.58030159999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21.059650000000001</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.6874287</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.3108909999999998</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.81781040000000005</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.099</v>
+      </c>
+      <c r="O11" s="3">
+        <v>996.51969999999994</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.847324919999998</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.179354459999999</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45131.576122685183</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10.145519999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.7810849999999991</v>
+      </c>
+      <c r="D12" s="3">
+        <v>96.079899999999995</v>
+      </c>
+      <c r="E12" s="3">
+        <v>103.96469999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.8718930000000001E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99802570000000002</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.7557930000000002E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.61731270000000005</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21.059239999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.880703</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5.0923040000000004</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.360749</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.0835520000000001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>996.48540000000003</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.847324919999998</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.179354459999999</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45131.57613425926</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10.142609999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.7952709999999996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>96.075720000000004</v>
+      </c>
+      <c r="E13" s="3">
+        <v>103.9636</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.871843E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99802610000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.7562079999999997E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.61755099999999996</v>
+      </c>
+      <c r="J13" s="3">
+        <v>21.059049999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.9580489999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5.2389510000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.4054469999999999</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.0826899999999999</v>
+      </c>
+      <c r="O13" s="3">
+        <v>996.48350000000005</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.847324919999998</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.179354459999999</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45131.576145833336</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10.13969</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.8094570000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>96.071539999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>103.96259999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.8717940000000001E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99802639999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.7566230000000005E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.61778940000000004</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21.05885</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2.0353949999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5.3855969999999997</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.450145</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.0818289999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>996.48149999999998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.847315020000003</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.179351980000007</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45131.576157407406</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10.055630000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.7981689999999997</v>
+      </c>
+      <c r="D15" s="3">
+        <v>95.655029999999996</v>
+      </c>
+      <c r="E15" s="3">
+        <v>103.7153</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.859778E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99804689999999996</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.7409399999999994E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.66662999999999994</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20.934940000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2.6857380000000002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6.8592209999999998</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.8993610000000001</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.097005</v>
+      </c>
+      <c r="O15" s="3">
+        <v>996.48940000000005</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.847315020000003</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.179351980000007</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45131.576168981483</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.049519999999999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.8035139999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>95.629750000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>103.70059999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.8590649999999999E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99804820000000005</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.7403439999999995E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.67016030000000004</v>
+      </c>
+      <c r="J16" s="3">
+        <v>20.92811</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2.7489509999999999</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6.9813049999999999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.9365749999999999</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.097486</v>
+      </c>
+      <c r="O16" s="3">
+        <v>996.48910000000001</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.847315020000003</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.179351980000007</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45131.576180555552</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10.043419999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8.8088569999999997</v>
+      </c>
+      <c r="D17" s="3">
+        <v>95.60445</v>
+      </c>
+      <c r="E17" s="3">
+        <v>103.6859</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.8583510000000003E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99804939999999998</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.7397479999999996E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.67369060000000003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20.92127</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.812163</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7.1033910000000002</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.973789</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.097966</v>
+      </c>
+      <c r="O17" s="3">
+        <v>996.48879999999997</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.847315020000003</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.179351980000007</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45131.576192129629</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10.218070000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9.1517959999999992</v>
+      </c>
+      <c r="D18" s="3">
+        <v>95.491330000000005</v>
+      </c>
+      <c r="E18" s="3">
+        <v>103.7354</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.8607350000000001E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99808600000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.7516039999999999E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.64401169999999996</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20.840229999999998</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.2851619999999997</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10.50733</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3.012769</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.113869</v>
+      </c>
+      <c r="O18" s="3">
+        <v>996.51509999999996</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.847307610000001</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.179361499999999</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45131.576203703706</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10.22573</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9.1703829999999993</v>
+      </c>
+      <c r="D19" s="3">
+        <v>95.475719999999995</v>
+      </c>
+      <c r="E19" s="3">
+        <v>103.73260000000001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.860594E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99808850000000005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.7518999999999996E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.64347949999999998</v>
+      </c>
+      <c r="J19" s="3">
+        <v>20.832989999999999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>4.3808999999999996</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10.7279</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3.0800800000000002</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.1150800000000001</v>
+      </c>
+      <c r="O19" s="3">
+        <v>996.51670000000001</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.847307610000001</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.179361499999999</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45131.576215277775</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10.23339</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.1889719999999997</v>
+      </c>
+      <c r="D20" s="3">
+        <v>95.46011</v>
+      </c>
+      <c r="E20" s="3">
+        <v>103.72969999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4.8604540000000002E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99809099999999995</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.7521960000000006E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.6429473</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20.825749999999999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.4766380000000003</v>
+      </c>
+      <c r="L20" s="3">
+        <v>10.94847</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3.1473900000000001</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1.11629</v>
+      </c>
+      <c r="O20" s="3">
+        <v>996.51840000000004</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.847307610000001</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.179361499999999</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45131.576226851852</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.9388260000000006</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8.8403030000000005</v>
+      </c>
+      <c r="D21" s="3">
+        <v>95.432630000000003</v>
+      </c>
+      <c r="E21" s="3">
+        <v>103.98180000000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.872634E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6.7599259999999994E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.62628950000000005</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.73508</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.8044219999999997</v>
+      </c>
+      <c r="L21" s="3">
+        <v>11.706630000000001</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3.3778450000000002</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1.0854649999999999</v>
+      </c>
+      <c r="O21" s="3">
+        <v>996.50149999999996</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.847307610000001</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.179361499999999</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45131.576238425929</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9.9265609999999995</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8.8289369999999998</v>
+      </c>
+      <c r="D22" s="3">
+        <v>95.428510000000003</v>
+      </c>
+      <c r="E22" s="3">
+        <v>103.9967</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4.8733529999999997E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99810129999999997</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.7606169999999993E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.62472570000000005</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.728269999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4.8558190000000003</v>
+      </c>
+      <c r="L22" s="3">
+        <v>11.825189999999999</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.4139810000000002</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1.0841289999999999</v>
+      </c>
+      <c r="O22" s="3">
+        <v>996.50120000000004</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.847299800000002</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.179370030000001</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45131.576006944444</v>
+        <v>45131.576249999998</v>
       </c>
       <c r="B23" s="3">
-        <v>10.176439999999999</v>
+        <v>9.9142960000000002</v>
       </c>
       <c r="C23" s="3">
-        <v>8.3582780000000003</v>
+        <v>8.8175690000000007</v>
       </c>
       <c r="D23" s="3">
-        <v>96.171679999999995</v>
+        <v>95.424390000000002</v>
       </c>
       <c r="E23" s="3">
-        <v>103.91670000000001</v>
+        <v>104.0116</v>
       </c>
       <c r="F23" s="3">
-        <v>4.869561E-2</v>
+        <v>4.8740730000000003E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99801079999999998</v>
+        <v>0.99810270000000001</v>
       </c>
       <c r="H23" s="3">
-        <v>6.7520570000000002E-2</v>
+        <v>6.7613069999999997E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.59705419999999998</v>
+        <v>0.62316179999999999</v>
       </c>
       <c r="J23" s="3">
-        <v>21.100149999999999</v>
+        <v>20.72146</v>
       </c>
       <c r="K23" s="3">
-        <v>7.0124619999999999E-2</v>
+        <v>4.9072170000000002</v>
       </c>
       <c r="L23" s="3">
-        <v>0.83213820000000005</v>
+        <v>11.94375</v>
       </c>
       <c r="M23" s="3">
-        <v>6.3385839999999999E-2</v>
+        <v>3.450116</v>
       </c>
       <c r="N23" s="3">
-        <v>1.117</v>
+        <v>1.0827929999999999</v>
       </c>
       <c r="O23" s="3">
-        <v>996.51980000000003</v>
+        <v>996.5009</v>
       </c>
       <c r="P23" s="3">
-        <v>46.847340320000001</v>
+        <v>46.847299800000002</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.179373069999997</v>
+        <v>-91.179370030000001</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45131.576018518521</v>
+        <v>45131.576261574075</v>
       </c>
       <c r="B24" s="3">
-        <v>10.33347</v>
+        <v>9.9739380000000004</v>
       </c>
       <c r="C24" s="3">
-        <v>8.6485699999999994</v>
+        <v>8.9094300000000004</v>
       </c>
       <c r="D24" s="3">
-        <v>96.137</v>
+        <v>95.500079999999997</v>
       </c>
       <c r="E24" s="3">
-        <v>103.9575</v>
+        <v>104.20740000000001</v>
       </c>
       <c r="F24" s="3">
-        <v>4.8715519999999998E-2</v>
+        <v>4.8835480000000001E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99801620000000002</v>
+        <v>0.99811329999999998</v>
       </c>
       <c r="H24" s="3">
-        <v>6.7569260000000006E-2</v>
+        <v>6.7737889999999995E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.67868170000000005</v>
+        <v>0.6642711</v>
       </c>
       <c r="J24" s="3">
-        <v>21.097300000000001</v>
+        <v>20.63016</v>
       </c>
       <c r="K24" s="3">
-        <v>9.9777210000000005E-2</v>
+        <v>5.2308339999999998</v>
       </c>
       <c r="L24" s="3">
-        <v>0.86349509999999996</v>
+        <v>12.69009</v>
       </c>
       <c r="M24" s="3">
-        <v>7.1896559999999998E-2</v>
+        <v>3.6776430000000002</v>
       </c>
       <c r="N24" s="3">
-        <v>1.101785</v>
+        <v>1.089866</v>
       </c>
       <c r="O24" s="3">
-        <v>996.51969999999994</v>
+        <v>996.50900000000001</v>
       </c>
       <c r="P24" s="3">
-        <v>46.847340320000001</v>
+        <v>46.847299800000002</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.179373069999997</v>
+        <v>-91.179370030000001</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45131.57603009259</v>
+        <v>45131.576273148145</v>
       </c>
       <c r="B25" s="3">
-        <v>10.341049999999999</v>
+        <v>9.9705919999999999</v>
       </c>
       <c r="C25" s="3">
-        <v>8.6679010000000005</v>
+        <v>8.9066759999999991</v>
       </c>
       <c r="D25" s="3">
-        <v>96.135230000000007</v>
+        <v>95.503529999999998</v>
       </c>
       <c r="E25" s="3">
-        <v>103.9611</v>
+        <v>104.2238</v>
       </c>
       <c r="F25" s="3">
-        <v>4.8717280000000002E-2</v>
+        <v>4.8843419999999999E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99801660000000003</v>
+        <v>0.9981141</v>
       </c>
       <c r="H25" s="3">
-        <v>6.7572359999999998E-2</v>
+        <v>6.7746490000000006E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.68243410000000004</v>
+        <v>0.66616690000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>21.096039999999999</v>
+        <v>20.623049999999999</v>
       </c>
       <c r="K25" s="3">
-        <v>0.1008522</v>
+        <v>5.2563740000000001</v>
       </c>
       <c r="L25" s="3">
-        <v>0.86473270000000002</v>
+        <v>12.749040000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>7.2233110000000003E-2</v>
+        <v>3.6955990000000001</v>
       </c>
       <c r="N25" s="3">
-        <v>1.1009260000000001</v>
+        <v>1.089566</v>
       </c>
       <c r="O25" s="3">
-        <v>996.51969999999994</v>
+        <v>996.50900000000001</v>
       </c>
       <c r="P25" s="3">
-        <v>46.847340320000001</v>
+        <v>46.847299800000002</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.179373069999997</v>
+        <v>-91.179370030000001</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45131.576041666667</v>
+        <v>45131.576284722221</v>
       </c>
       <c r="B26" s="3">
-        <v>10.34864</v>
+        <v>9.9672470000000004</v>
       </c>
       <c r="C26" s="3">
-        <v>8.6872330000000009</v>
+        <v>8.9039230000000007</v>
       </c>
       <c r="D26" s="3">
-        <v>96.133459999999999</v>
+        <v>95.506969999999995</v>
       </c>
       <c r="E26" s="3">
-        <v>103.96469999999999</v>
+        <v>104.2402</v>
       </c>
       <c r="F26" s="3">
-        <v>4.8719039999999998E-2</v>
+        <v>4.8851360000000003E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99801700000000004</v>
+        <v>0.99811490000000003</v>
       </c>
       <c r="H26" s="3">
-        <v>6.7575469999999999E-2</v>
+        <v>6.7755090000000004E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.68618650000000003</v>
+        <v>0.66806270000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>21.09478</v>
+        <v>20.615939999999998</v>
       </c>
       <c r="K26" s="3">
-        <v>0.1019272</v>
+        <v>5.2819130000000003</v>
       </c>
       <c r="L26" s="3">
-        <v>0.86597009999999996</v>
+        <v>12.80799</v>
       </c>
       <c r="M26" s="3">
-        <v>7.2569670000000003E-2</v>
+        <v>3.7135549999999999</v>
       </c>
       <c r="N26" s="3">
-        <v>1.1000669999999999</v>
+        <v>1.089267</v>
       </c>
       <c r="O26" s="3">
-        <v>996.51969999999994</v>
+        <v>996.50909999999999</v>
       </c>
       <c r="P26" s="3">
-        <v>46.847331220000001</v>
+        <v>46.847299800000002</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.17936709</v>
+        <v>-91.179370030000001</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45131.576053240744</v>
+        <v>45131.576296296298</v>
       </c>
       <c r="B27" s="3">
-        <v>10.196809999999999</v>
+        <v>9.9777629999999995</v>
       </c>
       <c r="C27" s="3">
-        <v>8.5489200000000007</v>
+        <v>8.92685</v>
       </c>
       <c r="D27" s="3">
-        <v>96.111109999999996</v>
+        <v>95.552229999999994</v>
       </c>
       <c r="E27" s="3">
-        <v>103.9361</v>
+        <v>103.9072</v>
       </c>
       <c r="F27" s="3">
-        <v>4.8705150000000003E-2</v>
+        <v>4.8689549999999998E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99801899999999999</v>
+        <v>0.9981331</v>
       </c>
       <c r="H27" s="3">
-        <v>6.7557539999999999E-2</v>
+        <v>6.7539689999999999E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.66925849999999998</v>
+        <v>0.66609689999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>21.0716</v>
+        <v>20.591550000000002</v>
       </c>
       <c r="K27" s="3">
-        <v>0.14884790000000001</v>
+        <v>6.4323620000000004</v>
       </c>
       <c r="L27" s="3">
-        <v>0.97300719999999996</v>
+        <v>15.46111</v>
       </c>
       <c r="M27" s="3">
-        <v>0.1051795</v>
+        <v>4.5224010000000003</v>
       </c>
       <c r="N27" s="3">
-        <v>1.0996300000000001</v>
+        <v>1.074128</v>
       </c>
       <c r="O27" s="3">
-        <v>996.51969999999994</v>
+        <v>996.5181</v>
       </c>
       <c r="P27" s="3">
-        <v>46.847331220000001</v>
+        <v>46.847299800000002</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.17936709</v>
+        <v>-91.179370030000001</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45131.576064814813</v>
+        <v>45131.576307870368</v>
       </c>
       <c r="B28" s="3">
-        <v>10.19172</v>
+        <v>9.9796689999999995</v>
       </c>
       <c r="C28" s="3">
-        <v>8.5474800000000002</v>
+        <v>8.9301999999999992</v>
       </c>
       <c r="D28" s="3">
-        <v>96.109039999999993</v>
+        <v>95.55641</v>
       </c>
       <c r="E28" s="3">
-        <v>103.9354</v>
+        <v>103.8935</v>
       </c>
       <c r="F28" s="3">
-        <v>4.8704789999999998E-2</v>
+        <v>4.8682860000000001E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99801930000000005</v>
+        <v>0.99813430000000003</v>
       </c>
       <c r="H28" s="3">
-        <v>6.7557610000000004E-2</v>
+        <v>6.7530759999999995E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.67016540000000002</v>
+        <v>0.66691699999999998</v>
       </c>
       <c r="J28" s="3">
-        <v>21.070250000000001</v>
+        <v>20.588090000000001</v>
       </c>
       <c r="K28" s="3">
-        <v>0.15221599999999999</v>
+        <v>6.5033700000000003</v>
       </c>
       <c r="L28" s="3">
-        <v>0.97984420000000005</v>
+        <v>15.62486</v>
       </c>
       <c r="M28" s="3">
-        <v>0.10723829999999999</v>
+        <v>4.5723240000000001</v>
       </c>
       <c r="N28" s="3">
-        <v>1.099262</v>
+        <v>1.0734539999999999</v>
       </c>
       <c r="O28" s="3">
-        <v>996.51969999999994</v>
+        <v>996.51880000000006</v>
       </c>
       <c r="P28" s="3">
-        <v>46.847331220000001</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.17936709</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45131.57607638889</v>
+        <v>45131.576319444444</v>
       </c>
       <c r="B29" s="3">
-        <v>10.186640000000001</v>
+        <v>9.9815740000000002</v>
       </c>
       <c r="C29" s="3">
-        <v>8.5460399999999996</v>
+        <v>8.933548</v>
       </c>
       <c r="D29" s="3">
-        <v>96.106970000000004</v>
+        <v>95.560599999999994</v>
       </c>
       <c r="E29" s="3">
-        <v>103.9346</v>
+        <v>103.8797</v>
       </c>
       <c r="F29" s="3">
-        <v>4.870443E-2</v>
+        <v>4.8676169999999998E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99801949999999995</v>
+        <v>0.99813560000000001</v>
       </c>
       <c r="H29" s="3">
-        <v>6.7557679999999995E-2</v>
+        <v>6.7521830000000005E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.67107220000000001</v>
+        <v>0.66773720000000003</v>
       </c>
       <c r="J29" s="3">
-        <v>21.06889</v>
+        <v>20.584620000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>0.155584</v>
+        <v>6.5743780000000003</v>
       </c>
       <c r="L29" s="3">
-        <v>0.98668129999999998</v>
+        <v>15.78862</v>
       </c>
       <c r="M29" s="3">
-        <v>0.1092972</v>
+        <v>4.6222479999999999</v>
       </c>
       <c r="N29" s="3">
-        <v>1.098894</v>
+        <v>1.0727789999999999</v>
       </c>
       <c r="O29" s="3">
-        <v>996.51969999999994</v>
+        <v>996.51949999999999</v>
       </c>
       <c r="P29" s="3">
-        <v>46.847331220000001</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.17936709</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45131.57608796296</v>
+        <v>45131.576331018521</v>
       </c>
       <c r="B30" s="3">
-        <v>10.212479999999999</v>
+        <v>10.13064</v>
       </c>
       <c r="C30" s="3">
-        <v>8.5282909999999994</v>
+        <v>8.7350290000000008</v>
       </c>
       <c r="D30" s="3">
-        <v>96.176180000000002</v>
+        <v>91.081739999999996</v>
       </c>
       <c r="E30" s="3">
-        <v>104.0048</v>
+        <v>100.8843</v>
       </c>
       <c r="F30" s="3">
-        <v>4.8738450000000003E-2</v>
+        <v>4.7219700000000003E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.9980192</v>
+        <v>0.99826760000000003</v>
       </c>
       <c r="H30" s="3">
-        <v>6.7453760000000001E-2</v>
+        <v>6.5574770000000004E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.59016170000000001</v>
+        <v>0.7836014</v>
       </c>
       <c r="J30" s="3">
-        <v>21.06156</v>
+        <v>20.524270000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.63214349999999997</v>
+        <v>6.9870409999999996</v>
       </c>
       <c r="L30" s="3">
-        <v>3.0733799999999998</v>
+        <v>16.74193</v>
       </c>
       <c r="M30" s="3">
-        <v>0.74540770000000001</v>
+        <v>4.9123789999999996</v>
       </c>
       <c r="N30" s="3">
-        <v>1.099</v>
+        <v>1.0802830000000001</v>
       </c>
       <c r="O30" s="3">
-        <v>996.51969999999994</v>
+        <v>996.50210000000004</v>
       </c>
       <c r="P30" s="3">
-        <v>46.847324919999998</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.179354459999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45131.576099537036</v>
+        <v>45131.576342592591</v>
       </c>
       <c r="B31" s="3">
-        <v>10.2103</v>
+        <v>10.13888</v>
       </c>
       <c r="C31" s="3">
-        <v>8.5239720000000005</v>
+        <v>8.7247900000000005</v>
       </c>
       <c r="D31" s="3">
-        <v>96.179519999999997</v>
+        <v>90.84102</v>
       </c>
       <c r="E31" s="3">
-        <v>104.0081</v>
+        <v>100.715</v>
       </c>
       <c r="F31" s="3">
-        <v>4.8740020000000002E-2</v>
+        <v>4.7137430000000001E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.9980192</v>
+        <v>0.99827509999999997</v>
       </c>
       <c r="H31" s="3">
-        <v>6.744754E-2</v>
+        <v>6.546478E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.58523170000000002</v>
+        <v>0.78982589999999997</v>
       </c>
       <c r="J31" s="3">
-        <v>21.06061</v>
+        <v>20.520379999999999</v>
       </c>
       <c r="K31" s="3">
-        <v>0.65978610000000004</v>
+        <v>7.0360120000000004</v>
       </c>
       <c r="L31" s="3">
-        <v>3.1921349999999999</v>
+        <v>16.854949999999999</v>
       </c>
       <c r="M31" s="3">
-        <v>0.781609</v>
+        <v>4.946809</v>
       </c>
       <c r="N31" s="3">
-        <v>1.099</v>
+        <v>1.080335</v>
       </c>
       <c r="O31" s="3">
-        <v>996.51969999999994</v>
+        <v>996.50139999999999</v>
       </c>
       <c r="P31" s="3">
-        <v>46.847324919999998</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.179354459999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45131.576111111113</v>
+        <v>45131.576354166667</v>
       </c>
       <c r="B32" s="3">
-        <v>10.208130000000001</v>
+        <v>10.147119999999999</v>
       </c>
       <c r="C32" s="3">
-        <v>8.5196520000000007</v>
+        <v>8.7145499999999991</v>
       </c>
       <c r="D32" s="3">
-        <v>96.182860000000005</v>
+        <v>90.600300000000004</v>
       </c>
       <c r="E32" s="3">
-        <v>104.01130000000001</v>
+        <v>100.5458</v>
       </c>
       <c r="F32" s="3">
-        <v>4.874158E-2</v>
+        <v>4.7055159999999999E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.9980192</v>
+        <v>0.99828269999999997</v>
       </c>
       <c r="H32" s="3">
-        <v>6.7441319999999999E-2</v>
+        <v>6.5354800000000005E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.58030159999999997</v>
+        <v>0.79605040000000005</v>
       </c>
       <c r="J32" s="3">
-        <v>21.059650000000001</v>
+        <v>20.516490000000001</v>
       </c>
       <c r="K32" s="3">
-        <v>0.6874287</v>
+        <v>7.0849820000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>3.3108909999999998</v>
+        <v>16.967980000000001</v>
       </c>
       <c r="M32" s="3">
-        <v>0.81781040000000005</v>
+        <v>4.9812390000000004</v>
       </c>
       <c r="N32" s="3">
-        <v>1.099</v>
+        <v>1.080387</v>
       </c>
       <c r="O32" s="3">
-        <v>996.51969999999994</v>
+        <v>996.50070000000005</v>
       </c>
       <c r="P32" s="3">
-        <v>46.847324919999998</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.179354459999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45131.576122685183</v>
+        <v>45131.576365740744</v>
       </c>
       <c r="B33" s="3">
-        <v>10.145519999999999</v>
+        <v>10.22513</v>
       </c>
       <c r="C33" s="3">
-        <v>8.7810849999999991</v>
+        <v>9.1645900000000005</v>
       </c>
       <c r="D33" s="3">
-        <v>96.079899999999995</v>
+        <v>90.440669999999997</v>
       </c>
       <c r="E33" s="3">
-        <v>103.96469999999999</v>
+        <v>101.2462</v>
       </c>
       <c r="F33" s="3">
-        <v>4.8718930000000001E-2</v>
+        <v>4.8742760000000003E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99802570000000002</v>
+        <v>0.99840669999999998</v>
       </c>
       <c r="H33" s="3">
-        <v>6.7557930000000002E-2</v>
+        <v>6.7625920000000006E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.61731270000000005</v>
+        <v>0.88135830000000004</v>
       </c>
       <c r="J33" s="3">
-        <v>21.059239999999999</v>
+        <v>19.493369999999999</v>
       </c>
       <c r="K33" s="3">
-        <v>1.880703</v>
+        <v>7.878889</v>
       </c>
       <c r="L33" s="3">
-        <v>5.0923040000000004</v>
+        <v>18.797440000000002</v>
       </c>
       <c r="M33" s="3">
-        <v>1.360749</v>
+        <v>5.5394100000000002</v>
       </c>
       <c r="N33" s="3">
-        <v>1.0835520000000001</v>
+        <v>1.050262</v>
       </c>
       <c r="O33" s="3">
-        <v>996.48540000000003</v>
+        <v>996.52570000000003</v>
       </c>
       <c r="P33" s="3">
-        <v>46.847324919999998</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.179354459999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45131.57613425926</v>
+        <v>45131.576377314814</v>
       </c>
       <c r="B34" s="3">
-        <v>10.142609999999999</v>
+        <v>10.232559999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>8.7952709999999996</v>
+        <v>9.1834629999999997</v>
       </c>
       <c r="D34" s="3">
-        <v>96.075720000000004</v>
+        <v>90.331270000000004</v>
       </c>
       <c r="E34" s="3">
-        <v>103.9636</v>
+        <v>101.21469999999999</v>
       </c>
       <c r="F34" s="3">
-        <v>4.871843E-2</v>
+        <v>4.8797229999999997E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99802610000000003</v>
+        <v>0.99841610000000003</v>
       </c>
       <c r="H34" s="3">
-        <v>6.7562079999999997E-2</v>
+        <v>6.7699529999999994E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.61755099999999996</v>
+        <v>0.88840759999999996</v>
       </c>
       <c r="J34" s="3">
-        <v>21.059049999999999</v>
+        <v>19.438949999999998</v>
       </c>
       <c r="K34" s="3">
-        <v>1.9580489999999999</v>
+        <v>7.930059</v>
       </c>
       <c r="L34" s="3">
-        <v>5.2389510000000001</v>
+        <v>18.915410000000001</v>
       </c>
       <c r="M34" s="3">
-        <v>1.4054469999999999</v>
+        <v>5.5753870000000001</v>
       </c>
       <c r="N34" s="3">
-        <v>1.0826899999999999</v>
+        <v>1.0488660000000001</v>
       </c>
       <c r="O34" s="3">
-        <v>996.48350000000005</v>
+        <v>996.52660000000003</v>
       </c>
       <c r="P34" s="3">
-        <v>46.847324919999998</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.179354459999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45131.576145833336</v>
+        <v>45131.576388888891</v>
       </c>
       <c r="B35" s="3">
-        <v>10.13969</v>
+        <v>10.24</v>
       </c>
       <c r="C35" s="3">
-        <v>8.8094570000000001</v>
+        <v>9.202337</v>
       </c>
       <c r="D35" s="3">
-        <v>96.071539999999999</v>
+        <v>90.221860000000007</v>
       </c>
       <c r="E35" s="3">
-        <v>103.96259999999999</v>
+        <v>101.1832</v>
       </c>
       <c r="F35" s="3">
-        <v>4.8717940000000001E-2</v>
+        <v>4.8851699999999998E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99802639999999998</v>
+        <v>0.99842549999999997</v>
       </c>
       <c r="H35" s="3">
-        <v>6.7566230000000005E-2</v>
+        <v>6.7773130000000001E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.61778940000000004</v>
+        <v>0.89545699999999995</v>
       </c>
       <c r="J35" s="3">
-        <v>21.05885</v>
+        <v>19.384540000000001</v>
       </c>
       <c r="K35" s="3">
-        <v>2.0353949999999998</v>
+        <v>7.98123</v>
       </c>
       <c r="L35" s="3">
-        <v>5.3855969999999997</v>
+        <v>19.033380000000001</v>
       </c>
       <c r="M35" s="3">
-        <v>1.450145</v>
+        <v>5.6113629999999999</v>
       </c>
       <c r="N35" s="3">
-        <v>1.0818289999999999</v>
+        <v>1.047469</v>
       </c>
       <c r="O35" s="3">
-        <v>996.48149999999998</v>
+        <v>996.52750000000003</v>
       </c>
       <c r="P35" s="3">
-        <v>46.847315020000003</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.179351980000007</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45131.576157407406</v>
+        <v>45131.57640046296</v>
       </c>
       <c r="B36" s="3">
-        <v>10.055630000000001</v>
+        <v>10.24743</v>
       </c>
       <c r="C36" s="3">
-        <v>8.7981689999999997</v>
+        <v>9.2212099999999992</v>
       </c>
       <c r="D36" s="3">
-        <v>95.655029999999996</v>
+        <v>90.112449999999995</v>
       </c>
       <c r="E36" s="3">
-        <v>103.7153</v>
+        <v>101.15170000000001</v>
       </c>
       <c r="F36" s="3">
-        <v>4.859778E-2</v>
+        <v>4.8906169999999999E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99804689999999996</v>
+        <v>0.99843499999999996</v>
       </c>
       <c r="H36" s="3">
-        <v>6.7409399999999994E-2</v>
+        <v>6.7846729999999994E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.66662999999999994</v>
+        <v>0.90250640000000004</v>
       </c>
       <c r="J36" s="3">
-        <v>20.934940000000001</v>
+        <v>19.33013</v>
       </c>
       <c r="K36" s="3">
-        <v>2.6857380000000002</v>
+        <v>8.0324000000000009</v>
       </c>
       <c r="L36" s="3">
-        <v>6.8592209999999998</v>
+        <v>19.151350000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>1.8993610000000001</v>
+        <v>5.6473389999999997</v>
       </c>
       <c r="N36" s="3">
-        <v>1.097005</v>
+        <v>1.0460719999999999</v>
       </c>
       <c r="O36" s="3">
-        <v>996.48940000000005</v>
+        <v>996.52840000000003</v>
       </c>
       <c r="P36" s="3">
-        <v>46.847315020000003</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.179351980000007</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45131.576168981483</v>
+        <v>45131.576412037037</v>
       </c>
       <c r="B37" s="3">
-        <v>10.049519999999999</v>
+        <v>9.8523390000000006</v>
       </c>
       <c r="C37" s="3">
-        <v>8.8035139999999998</v>
+        <v>9.0651779999999995</v>
       </c>
       <c r="D37" s="3">
-        <v>95.629750000000001</v>
+        <v>89.263760000000005</v>
       </c>
       <c r="E37" s="3">
-        <v>103.70059999999999</v>
+        <v>101.1185</v>
       </c>
       <c r="F37" s="3">
-        <v>4.8590649999999999E-2</v>
+        <v>4.7479399999999998E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99804820000000005</v>
+        <v>0.99847529999999995</v>
       </c>
       <c r="H37" s="3">
-        <v>6.7403439999999995E-2</v>
+        <v>6.5937350000000006E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.67016030000000004</v>
+        <v>0.8735058</v>
       </c>
       <c r="J37" s="3">
-        <v>20.92811</v>
+        <v>19.111999999999998</v>
       </c>
       <c r="K37" s="3">
-        <v>2.7489509999999999</v>
+        <v>8.3975720000000003</v>
       </c>
       <c r="L37" s="3">
-        <v>6.9813049999999999</v>
+        <v>19.995190000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>1.9365749999999999</v>
+        <v>5.9040809999999997</v>
       </c>
       <c r="N37" s="3">
-        <v>1.097486</v>
+        <v>1.0932999999999999</v>
       </c>
       <c r="O37" s="3">
-        <v>996.48910000000001</v>
+        <v>996.50260000000003</v>
       </c>
       <c r="P37" s="3">
-        <v>46.847315020000003</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.179351980000007</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45131.576180555552</v>
+        <v>45131.576423611114</v>
       </c>
       <c r="B38" s="3">
-        <v>10.043419999999999</v>
+        <v>9.8346669999999996</v>
       </c>
       <c r="C38" s="3">
-        <v>8.8088569999999997</v>
+        <v>9.0671759999999999</v>
       </c>
       <c r="D38" s="3">
-        <v>95.60445</v>
+        <v>89.212410000000006</v>
       </c>
       <c r="E38" s="3">
-        <v>103.6859</v>
+        <v>101.1284</v>
       </c>
       <c r="F38" s="3">
-        <v>4.8583510000000003E-2</v>
+        <v>4.7444159999999999E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99804939999999998</v>
+        <v>0.99848020000000004</v>
       </c>
       <c r="H38" s="3">
-        <v>6.7397479999999996E-2</v>
+        <v>6.5890470000000007E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.67369060000000003</v>
+        <v>0.874108</v>
       </c>
       <c r="J38" s="3">
-        <v>20.92127</v>
+        <v>19.078399999999998</v>
       </c>
       <c r="K38" s="3">
-        <v>2.812163</v>
+        <v>8.4341880000000007</v>
       </c>
       <c r="L38" s="3">
-        <v>7.1033910000000002</v>
+        <v>20.079689999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>1.973789</v>
+        <v>5.9298250000000001</v>
       </c>
       <c r="N38" s="3">
-        <v>1.097966</v>
+        <v>1.0949800000000001</v>
       </c>
       <c r="O38" s="3">
-        <v>996.48879999999997</v>
+        <v>996.50189999999998</v>
       </c>
       <c r="P38" s="3">
-        <v>46.847315020000003</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.179351980000007</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45131.576192129629</v>
+        <v>45131.576435185183</v>
       </c>
       <c r="B39" s="3">
-        <v>10.218070000000001</v>
+        <v>9.8169950000000004</v>
       </c>
       <c r="C39" s="3">
-        <v>9.1517959999999992</v>
+        <v>9.0691740000000003</v>
       </c>
       <c r="D39" s="3">
-        <v>95.491330000000005</v>
+        <v>89.161060000000006</v>
       </c>
       <c r="E39" s="3">
-        <v>103.7354</v>
+        <v>101.1384</v>
       </c>
       <c r="F39" s="3">
-        <v>4.8607350000000001E-2</v>
+        <v>4.740892E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99808600000000003</v>
+        <v>0.99848510000000001</v>
       </c>
       <c r="H39" s="3">
-        <v>6.7516039999999999E-2</v>
+        <v>6.5843600000000002E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.64401169999999996</v>
+        <v>0.87471010000000005</v>
       </c>
       <c r="J39" s="3">
-        <v>20.840229999999998</v>
+        <v>19.044789999999999</v>
       </c>
       <c r="K39" s="3">
-        <v>4.2851619999999997</v>
+        <v>8.4708039999999993</v>
       </c>
       <c r="L39" s="3">
-        <v>10.50733</v>
+        <v>20.164190000000001</v>
       </c>
       <c r="M39" s="3">
-        <v>3.012769</v>
+        <v>5.9555689999999997</v>
       </c>
       <c r="N39" s="3">
-        <v>1.113869</v>
+        <v>1.0966590000000001</v>
       </c>
       <c r="O39" s="3">
-        <v>996.51509999999996</v>
+        <v>996.50120000000004</v>
       </c>
       <c r="P39" s="3">
-        <v>46.847307610000001</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.179361499999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45131.576203703706</v>
+        <v>45131.57644675926</v>
       </c>
       <c r="B40" s="3">
-        <v>10.22573</v>
+        <v>10.09909</v>
       </c>
       <c r="C40" s="3">
-        <v>9.1703829999999993</v>
+        <v>8.9313120000000001</v>
       </c>
       <c r="D40" s="3">
-        <v>95.475719999999995</v>
+        <v>87.69041</v>
       </c>
       <c r="E40" s="3">
-        <v>103.73260000000001</v>
+        <v>100.1906</v>
       </c>
       <c r="F40" s="3">
-        <v>4.860594E-2</v>
+        <v>4.6698900000000002E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99808850000000005</v>
+        <v>0.99859299999999995</v>
       </c>
       <c r="H40" s="3">
-        <v>6.7518999999999996E-2</v>
+        <v>6.4903390000000005E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.64347949999999998</v>
+        <v>0.99362729999999999</v>
       </c>
       <c r="J40" s="3">
-        <v>20.832989999999999</v>
+        <v>18.494599999999998</v>
       </c>
       <c r="K40" s="3">
-        <v>4.3808999999999996</v>
+        <v>9.1963810000000006</v>
       </c>
       <c r="L40" s="3">
-        <v>10.7279</v>
+        <v>21.79138</v>
       </c>
       <c r="M40" s="3">
-        <v>3.0800800000000002</v>
+        <v>6.4656989999999999</v>
       </c>
       <c r="N40" s="3">
-        <v>1.1150800000000001</v>
+        <v>1.089704</v>
       </c>
       <c r="O40" s="3">
-        <v>996.51670000000001</v>
+        <v>996.55269999999996</v>
       </c>
       <c r="P40" s="3">
-        <v>46.847307610000001</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.179361499999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45131.576215277775</v>
+        <v>45131.576458333337</v>
       </c>
       <c r="B41" s="3">
-        <v>10.23339</v>
+        <v>10.105119999999999</v>
       </c>
       <c r="C41" s="3">
-        <v>9.1889719999999997</v>
+        <v>8.9214140000000004</v>
       </c>
       <c r="D41" s="3">
-        <v>95.46011</v>
+        <v>87.596119999999999</v>
       </c>
       <c r="E41" s="3">
-        <v>103.72969999999999</v>
+        <v>100.1412</v>
       </c>
       <c r="F41" s="3">
-        <v>4.8604540000000002E-2</v>
+        <v>4.6634080000000001E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99809099999999995</v>
+        <v>0.99859940000000003</v>
       </c>
       <c r="H41" s="3">
-        <v>6.7521960000000006E-2</v>
+        <v>6.4817169999999993E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.6429473</v>
+        <v>0.99912009999999996</v>
       </c>
       <c r="J41" s="3">
-        <v>20.825749999999999</v>
+        <v>18.461590000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>4.4766380000000003</v>
+        <v>9.241282</v>
       </c>
       <c r="L41" s="3">
-        <v>10.94847</v>
+        <v>21.892659999999999</v>
       </c>
       <c r="M41" s="3">
-        <v>3.1473900000000001</v>
+        <v>6.497268</v>
       </c>
       <c r="N41" s="3">
-        <v>1.11629</v>
+        <v>1.0903210000000001</v>
       </c>
       <c r="O41" s="3">
-        <v>996.51840000000004</v>
+        <v>996.55470000000003</v>
       </c>
       <c r="P41" s="3">
-        <v>46.847307610000001</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.179361499999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45131.576226851852</v>
+        <v>45131.576469907406</v>
       </c>
       <c r="B42" s="3">
-        <v>9.9388260000000006</v>
+        <v>10.111140000000001</v>
       </c>
       <c r="C42" s="3">
-        <v>8.8403030000000005</v>
+        <v>8.9115169999999999</v>
       </c>
       <c r="D42" s="3">
-        <v>95.432630000000003</v>
+        <v>87.501819999999995</v>
       </c>
       <c r="E42" s="3">
-        <v>103.98180000000001</v>
+        <v>100.09180000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>4.872634E-2</v>
+        <v>4.6569270000000003E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99809999999999999</v>
+        <v>0.99860579999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>6.7599259999999994E-2</v>
+        <v>6.4730930000000006E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.62628950000000005</v>
+        <v>1.004613</v>
       </c>
       <c r="J42" s="3">
-        <v>20.73508</v>
+        <v>18.428570000000001</v>
       </c>
       <c r="K42" s="3">
-        <v>4.8044219999999997</v>
+        <v>9.2861829999999994</v>
       </c>
       <c r="L42" s="3">
-        <v>11.706630000000001</v>
+        <v>21.993939999999998</v>
       </c>
       <c r="M42" s="3">
-        <v>3.3778450000000002</v>
+        <v>6.5288370000000002</v>
       </c>
       <c r="N42" s="3">
-        <v>1.0854649999999999</v>
+        <v>1.0909390000000001</v>
       </c>
       <c r="O42" s="3">
-        <v>996.50149999999996</v>
+        <v>996.55679999999995</v>
       </c>
       <c r="P42" s="3">
-        <v>46.847307610000001</v>
+        <v>46.847290739999998</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.179361499999999</v>
+        <v>-91.179372709999996</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45131.576238425929</v>
+        <v>45131.576481481483</v>
       </c>
       <c r="B43" s="3">
-        <v>9.9265609999999995</v>
+        <v>10.33915</v>
       </c>
       <c r="C43" s="3">
-        <v>8.8289369999999998</v>
+        <v>9.9583849999999998</v>
       </c>
       <c r="D43" s="3">
-        <v>95.428510000000003</v>
+        <v>86.626400000000004</v>
       </c>
       <c r="E43" s="3">
-        <v>103.9967</v>
+        <v>99.771739999999994</v>
       </c>
       <c r="F43" s="3">
-        <v>4.8733529999999997E-2</v>
+        <v>4.6632510000000002E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99810129999999997</v>
+        <v>0.99862019999999996</v>
       </c>
       <c r="H43" s="3">
-        <v>6.7606169999999993E-2</v>
+        <v>6.4817570000000005E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.62472570000000005</v>
+        <v>0.81598570000000004</v>
       </c>
       <c r="J43" s="3">
-        <v>20.728269999999998</v>
+        <v>18.180230000000002</v>
       </c>
       <c r="K43" s="3">
-        <v>4.8558190000000003</v>
+        <v>9.5089559999999995</v>
       </c>
       <c r="L43" s="3">
-        <v>11.825189999999999</v>
+        <v>22.044519999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>3.4139810000000002</v>
+        <v>6.6854620000000002</v>
       </c>
       <c r="N43" s="3">
-        <v>1.0841289999999999</v>
+        <v>1.0902780000000001</v>
       </c>
       <c r="O43" s="3">
-        <v>996.50120000000004</v>
+        <v>996.54920000000004</v>
       </c>
       <c r="P43" s="3">
-        <v>46.847299800000002</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.179370030000001</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45131.576249999998</v>
+        <v>45131.576493055552</v>
       </c>
       <c r="B44" s="3">
-        <v>9.9142960000000002</v>
+        <v>10.35646</v>
       </c>
       <c r="C44" s="3">
-        <v>8.8175690000000007</v>
+        <v>10.00895</v>
       </c>
       <c r="D44" s="3">
-        <v>95.424390000000002</v>
+        <v>86.550870000000003</v>
       </c>
       <c r="E44" s="3">
-        <v>104.0116</v>
+        <v>99.736019999999996</v>
       </c>
       <c r="F44" s="3">
-        <v>4.8740730000000003E-2</v>
+        <v>4.6621000000000003E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99810270000000001</v>
+        <v>0.99862309999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>6.7613069999999997E-2</v>
+        <v>6.4802479999999996E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.62316179999999999</v>
+        <v>0.80885759999999995</v>
       </c>
       <c r="J44" s="3">
-        <v>20.72146</v>
+        <v>18.155719999999999</v>
       </c>
       <c r="K44" s="3">
-        <v>4.9072170000000002</v>
+        <v>9.5357830000000003</v>
       </c>
       <c r="L44" s="3">
-        <v>11.94375</v>
+        <v>22.08183</v>
       </c>
       <c r="M44" s="3">
-        <v>3.450116</v>
+        <v>6.7043220000000003</v>
       </c>
       <c r="N44" s="3">
-        <v>1.0827929999999999</v>
+        <v>1.0901099999999999</v>
       </c>
       <c r="O44" s="3">
-        <v>996.5009</v>
+        <v>996.54989999999998</v>
       </c>
       <c r="P44" s="3">
-        <v>46.847299800000002</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.179370030000001</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45131.576261574075</v>
+        <v>45131.576504629629</v>
       </c>
       <c r="B45" s="3">
-        <v>9.9739380000000004</v>
+        <v>10.37378</v>
       </c>
       <c r="C45" s="3">
-        <v>8.9094300000000004</v>
+        <v>10.059519999999999</v>
       </c>
       <c r="D45" s="3">
-        <v>95.500079999999997</v>
+        <v>86.475359999999995</v>
       </c>
       <c r="E45" s="3">
-        <v>104.20740000000001</v>
+        <v>99.700299999999999</v>
       </c>
       <c r="F45" s="3">
-        <v>4.8835480000000001E-2</v>
+        <v>4.6609490000000003E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99811329999999998</v>
+        <v>0.99862620000000002</v>
       </c>
       <c r="H45" s="3">
-        <v>6.7737889999999995E-2</v>
+        <v>6.4787380000000006E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.6642711</v>
+        <v>0.80172940000000004</v>
       </c>
       <c r="J45" s="3">
-        <v>20.63016</v>
+        <v>18.131209999999999</v>
       </c>
       <c r="K45" s="3">
-        <v>5.2308339999999998</v>
+        <v>9.5626099999999994</v>
       </c>
       <c r="L45" s="3">
-        <v>12.69009</v>
+        <v>22.119150000000001</v>
       </c>
       <c r="M45" s="3">
-        <v>3.6776430000000002</v>
+        <v>6.7231839999999998</v>
       </c>
       <c r="N45" s="3">
-        <v>1.089866</v>
+        <v>1.089942</v>
       </c>
       <c r="O45" s="3">
-        <v>996.50900000000001</v>
+        <v>996.55050000000006</v>
       </c>
       <c r="P45" s="3">
-        <v>46.847299800000002</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.179370030000001</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45131.576273148145</v>
+        <v>45131.576516203706</v>
       </c>
       <c r="B46" s="3">
-        <v>9.9705919999999999</v>
+        <v>18.079899999999999</v>
       </c>
       <c r="C46" s="3">
-        <v>8.9066759999999991</v>
+        <v>10.844279999999999</v>
       </c>
       <c r="D46" s="3">
-        <v>95.503529999999998</v>
+        <v>86.233220000000003</v>
       </c>
       <c r="E46" s="3">
-        <v>104.2238</v>
+        <v>99.548919999999995</v>
       </c>
       <c r="F46" s="3">
-        <v>4.8843419999999999E-2</v>
+        <v>4.6540480000000002E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.9981141</v>
+        <v>0.99863020000000002</v>
       </c>
       <c r="H46" s="3">
-        <v>6.7746490000000006E-2</v>
+        <v>6.4560930000000002E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.66616690000000001</v>
+        <v>1.1222110000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>20.623049999999999</v>
+        <v>18.005780000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>5.2563740000000001</v>
+        <v>9.5689860000000007</v>
       </c>
       <c r="L46" s="3">
-        <v>12.749040000000001</v>
+        <v>22.099550000000001</v>
       </c>
       <c r="M46" s="3">
-        <v>3.6955990000000001</v>
+        <v>6.7276670000000003</v>
       </c>
       <c r="N46" s="3">
-        <v>1.089566</v>
+        <v>1.082292</v>
       </c>
       <c r="O46" s="3">
-        <v>996.50900000000001</v>
+        <v>996.49009999999998</v>
       </c>
       <c r="P46" s="3">
-        <v>46.847299800000002</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.179370030000001</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45131.576284722221</v>
+        <v>45131.576527777775</v>
       </c>
       <c r="B47" s="3">
-        <v>9.9672470000000004</v>
+        <v>18.482199999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>8.9039230000000007</v>
+        <v>10.90659</v>
       </c>
       <c r="D47" s="3">
-        <v>95.506969999999995</v>
+        <v>86.202089999999998</v>
       </c>
       <c r="E47" s="3">
-        <v>104.2402</v>
+        <v>99.534319999999994</v>
       </c>
       <c r="F47" s="3">
-        <v>4.8851360000000003E-2</v>
+        <v>4.6537839999999997E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99811490000000003</v>
+        <v>0.99863069999999998</v>
       </c>
       <c r="H47" s="3">
-        <v>6.7755090000000004E-2</v>
+        <v>6.4550510000000005E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.66806270000000001</v>
+        <v>1.134809</v>
       </c>
       <c r="J47" s="3">
-        <v>20.615939999999998</v>
+        <v>17.994019999999999</v>
       </c>
       <c r="K47" s="3">
-        <v>5.2819130000000003</v>
+        <v>9.5741160000000001</v>
       </c>
       <c r="L47" s="3">
-        <v>12.80799</v>
+        <v>22.099930000000001</v>
       </c>
       <c r="M47" s="3">
-        <v>3.7135549999999999</v>
+        <v>6.731274</v>
       </c>
       <c r="N47" s="3">
-        <v>1.089267</v>
+        <v>1.0818950000000001</v>
       </c>
       <c r="O47" s="3">
-        <v>996.50909999999999</v>
+        <v>996.48680000000002</v>
       </c>
       <c r="P47" s="3">
-        <v>46.847299800000002</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.179370030000001</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45131.576296296298</v>
+        <v>45131.576539351852</v>
       </c>
       <c r="B48" s="3">
-        <v>9.9777629999999995</v>
+        <v>18.884499999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>8.92685</v>
+        <v>10.968909999999999</v>
       </c>
       <c r="D48" s="3">
-        <v>95.552229999999994</v>
+        <v>86.170959999999994</v>
       </c>
       <c r="E48" s="3">
-        <v>103.9072</v>
+        <v>99.519729999999996</v>
       </c>
       <c r="F48" s="3">
-        <v>4.8689549999999998E-2</v>
+        <v>4.6535189999999997E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.9981331</v>
+        <v>0.99863120000000005</v>
       </c>
       <c r="H48" s="3">
-        <v>6.7539689999999999E-2</v>
+        <v>6.4540100000000003E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.66609689999999999</v>
+        <v>1.1474070000000001</v>
       </c>
       <c r="J48" s="3">
-        <v>20.591550000000002</v>
+        <v>17.98227</v>
       </c>
       <c r="K48" s="3">
-        <v>6.4323620000000004</v>
+        <v>9.5792459999999995</v>
       </c>
       <c r="L48" s="3">
-        <v>15.46111</v>
+        <v>22.10031</v>
       </c>
       <c r="M48" s="3">
-        <v>4.5224010000000003</v>
+        <v>6.7348800000000004</v>
       </c>
       <c r="N48" s="3">
-        <v>1.074128</v>
+        <v>1.0814969999999999</v>
       </c>
       <c r="O48" s="3">
-        <v>996.5181</v>
+        <v>996.48350000000005</v>
       </c>
       <c r="P48" s="3">
-        <v>46.847299800000002</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.179370030000001</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45131.576307870368</v>
+        <v>45131.576550925929</v>
       </c>
       <c r="B49" s="3">
-        <v>9.9796689999999995</v>
+        <v>11.45032</v>
       </c>
       <c r="C49" s="3">
-        <v>8.9301999999999992</v>
+        <v>9.7292620000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>95.55641</v>
+        <v>86.118480000000005</v>
       </c>
       <c r="E49" s="3">
-        <v>103.8935</v>
+        <v>99.329939999999993</v>
       </c>
       <c r="F49" s="3">
-        <v>4.8682860000000001E-2</v>
+        <v>4.644322E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99813430000000003</v>
+        <v>0.99862589999999996</v>
       </c>
       <c r="H49" s="3">
-        <v>6.7530759999999995E-2</v>
+        <v>6.4546370000000006E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.66691699999999998</v>
+        <v>1.140857</v>
       </c>
       <c r="J49" s="3">
-        <v>20.588090000000001</v>
+        <v>18.010290000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>6.5033700000000003</v>
+        <v>9.5777819999999991</v>
       </c>
       <c r="L49" s="3">
-        <v>15.62486</v>
+        <v>22.126049999999999</v>
       </c>
       <c r="M49" s="3">
-        <v>4.5723240000000001</v>
+        <v>6.7338500000000003</v>
       </c>
       <c r="N49" s="3">
-        <v>1.0734539999999999</v>
+        <v>1.0431060000000001</v>
       </c>
       <c r="O49" s="3">
-        <v>996.51880000000006</v>
+        <v>996.49919999999997</v>
       </c>
       <c r="P49" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q49" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R49" s="3"/>
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45131.576319444444</v>
+        <v>45131.576562499999</v>
       </c>
       <c r="B50" s="3">
-        <v>9.9815740000000002</v>
+        <v>11.224550000000001</v>
       </c>
       <c r="C50" s="3">
-        <v>8.933548</v>
+        <v>9.6809890000000003</v>
       </c>
       <c r="D50" s="3">
-        <v>95.560599999999994</v>
+        <v>86.11054</v>
       </c>
       <c r="E50" s="3">
-        <v>103.8797</v>
+        <v>99.316770000000005</v>
       </c>
       <c r="F50" s="3">
-        <v>4.8676169999999998E-2</v>
+        <v>4.6436869999999998E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99813560000000001</v>
+        <v>0.99862569999999995</v>
       </c>
       <c r="H50" s="3">
-        <v>6.7521830000000005E-2</v>
+        <v>6.4541810000000005E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.66773720000000003</v>
+        <v>1.14727</v>
       </c>
       <c r="J50" s="3">
-        <v>20.584620000000001</v>
+        <v>18.009070000000001</v>
       </c>
       <c r="K50" s="3">
-        <v>6.5743780000000003</v>
+        <v>9.5779289999999992</v>
       </c>
       <c r="L50" s="3">
-        <v>15.78862</v>
+        <v>22.127230000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>4.6222479999999999</v>
+        <v>6.7339529999999996</v>
       </c>
       <c r="N50" s="3">
-        <v>1.0727789999999999</v>
+        <v>1.040945</v>
       </c>
       <c r="O50" s="3">
-        <v>996.51949999999999</v>
+        <v>996.49879999999996</v>
       </c>
       <c r="P50" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847280869999999</v>
       </c>
       <c r="Q50" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179368350000004</v>
       </c>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45131.576331018521</v>
+        <v>45131.576574074075</v>
       </c>
       <c r="B51" s="3">
-        <v>10.13064</v>
+        <v>10.99878</v>
       </c>
       <c r="C51" s="3">
-        <v>8.7350290000000008</v>
+        <v>9.6327149999999993</v>
       </c>
       <c r="D51" s="3">
-        <v>91.081739999999996</v>
+        <v>86.102609999999999</v>
       </c>
       <c r="E51" s="3">
-        <v>100.8843</v>
+        <v>99.303610000000006</v>
       </c>
       <c r="F51" s="3">
-        <v>4.7219700000000003E-2</v>
+        <v>4.6430520000000003E-2</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99826760000000003</v>
+        <v>0.99862550000000005</v>
       </c>
       <c r="H51" s="3">
-        <v>6.5574770000000004E-2</v>
+        <v>6.4537239999999996E-2</v>
       </c>
       <c r="I51" s="3">
-        <v>0.7836014</v>
+        <v>1.1536839999999999</v>
       </c>
       <c r="J51" s="3">
-        <v>20.524270000000001</v>
+        <v>18.007840000000002</v>
       </c>
       <c r="K51" s="3">
-        <v>6.9870409999999996</v>
+        <v>9.5780740000000009</v>
       </c>
       <c r="L51" s="3">
-        <v>16.74193</v>
+        <v>22.128409999999999</v>
       </c>
       <c r="M51" s="3">
-        <v>4.9123789999999996</v>
+        <v>6.7340559999999998</v>
       </c>
       <c r="N51" s="3">
-        <v>1.0802830000000001</v>
+        <v>1.0387839999999999</v>
       </c>
       <c r="O51" s="3">
-        <v>996.50210000000004</v>
+        <v>996.49839999999995</v>
       </c>
       <c r="P51" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847270819999999</v>
       </c>
       <c r="Q51" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179363539999997</v>
       </c>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45131.576342592591</v>
+        <v>45131.576585648145</v>
       </c>
       <c r="B52" s="3">
-        <v>10.13888</v>
+        <v>11.08118</v>
       </c>
       <c r="C52" s="3">
-        <v>8.7247900000000005</v>
+        <v>10.11065</v>
       </c>
       <c r="D52" s="3">
-        <v>90.84102</v>
+        <v>86.084299999999999</v>
       </c>
       <c r="E52" s="3">
-        <v>100.715</v>
+        <v>99.252750000000006</v>
       </c>
       <c r="F52" s="3">
-        <v>4.7137430000000001E-2</v>
+        <v>4.640611E-2</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99827509999999997</v>
+        <v>0.99862309999999999</v>
       </c>
       <c r="H52" s="3">
-        <v>6.546478E-2</v>
+        <v>6.4449709999999993E-2</v>
       </c>
       <c r="I52" s="3">
-        <v>0.78982589999999997</v>
+        <v>1.2381500000000001</v>
       </c>
       <c r="J52" s="3">
-        <v>20.520379999999999</v>
+        <v>18.04965</v>
       </c>
       <c r="K52" s="3">
-        <v>7.0360120000000004</v>
+        <v>9.5891249999999992</v>
       </c>
       <c r="L52" s="3">
-        <v>16.854949999999999</v>
+        <v>22.155270000000002</v>
       </c>
       <c r="M52" s="3">
-        <v>4.946809</v>
+        <v>6.7418259999999997</v>
       </c>
       <c r="N52" s="3">
-        <v>1.080335</v>
+        <v>1.0301309999999999</v>
       </c>
       <c r="O52" s="3">
-        <v>996.50139999999999</v>
+        <v>996.54960000000005</v>
       </c>
       <c r="P52" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847270819999999</v>
       </c>
       <c r="Q52" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179363539999997</v>
       </c>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45131.576354166667</v>
+        <v>45131.576597222222</v>
       </c>
       <c r="B53" s="3">
-        <v>10.147119999999999</v>
+        <v>10.92783</v>
       </c>
       <c r="C53" s="3">
-        <v>8.7145499999999991</v>
+        <v>10.109920000000001</v>
       </c>
       <c r="D53" s="3">
-        <v>90.600300000000004</v>
+        <v>86.082229999999996</v>
       </c>
       <c r="E53" s="3">
-        <v>100.5458</v>
+        <v>99.246120000000005</v>
       </c>
       <c r="F53" s="3">
-        <v>4.7055159999999999E-2</v>
+        <v>4.6402930000000002E-2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99828269999999997</v>
+        <v>0.99862280000000003</v>
       </c>
       <c r="H53" s="3">
-        <v>6.5354800000000005E-2</v>
+        <v>6.4445299999999997E-2</v>
       </c>
       <c r="I53" s="3">
-        <v>0.79605040000000005</v>
+        <v>1.242345</v>
       </c>
       <c r="J53" s="3">
-        <v>20.516490000000001</v>
+        <v>18.05246</v>
       </c>
       <c r="K53" s="3">
-        <v>7.0849820000000001</v>
+        <v>9.5896989999999995</v>
       </c>
       <c r="L53" s="3">
-        <v>16.967980000000001</v>
+        <v>22.157240000000002</v>
       </c>
       <c r="M53" s="3">
-        <v>4.9812390000000004</v>
+        <v>6.742229</v>
       </c>
       <c r="N53" s="3">
-        <v>1.080387</v>
+        <v>1.028875</v>
       </c>
       <c r="O53" s="3">
-        <v>996.50070000000005</v>
+        <v>996.55269999999996</v>
       </c>
       <c r="P53" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847270819999999</v>
       </c>
       <c r="Q53" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179363539999997</v>
       </c>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45131.576365740744</v>
+        <v>45131.576608796298</v>
       </c>
       <c r="B54" s="3">
-        <v>10.22513</v>
+        <v>10.774480000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>9.1645900000000005</v>
+        <v>10.10919</v>
       </c>
       <c r="D54" s="3">
-        <v>90.440669999999997</v>
+        <v>86.080160000000006</v>
       </c>
       <c r="E54" s="3">
-        <v>101.2462</v>
+        <v>99.239490000000004</v>
       </c>
       <c r="F54" s="3">
-        <v>4.8742760000000003E-2</v>
+        <v>4.6399759999999998E-2</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99840669999999998</v>
+        <v>0.99862260000000003</v>
       </c>
       <c r="H54" s="3">
-        <v>6.7625920000000006E-2</v>
+        <v>6.4440890000000001E-2</v>
       </c>
       <c r="I54" s="3">
-        <v>0.88135830000000004</v>
+        <v>1.24654</v>
       </c>
       <c r="J54" s="3">
-        <v>19.493369999999999</v>
+        <v>18.05527</v>
       </c>
       <c r="K54" s="3">
-        <v>7.878889</v>
+        <v>9.5902720000000006</v>
       </c>
       <c r="L54" s="3">
-        <v>18.797440000000002</v>
+        <v>22.159199999999998</v>
       </c>
       <c r="M54" s="3">
-        <v>5.5394100000000002</v>
+        <v>6.7426320000000004</v>
       </c>
       <c r="N54" s="3">
-        <v>1.050262</v>
+        <v>1.02762</v>
       </c>
       <c r="O54" s="3">
-        <v>996.52570000000003</v>
+        <v>996.5557</v>
       </c>
       <c r="P54" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847270819999999</v>
       </c>
       <c r="Q54" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179363539999997</v>
       </c>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45131.576377314814</v>
+        <v>45131.576620370368</v>
       </c>
       <c r="B55" s="3">
-        <v>10.232559999999999</v>
+        <v>10.621130000000001</v>
       </c>
       <c r="C55" s="3">
-        <v>9.1834629999999997</v>
+        <v>10.108459999999999</v>
       </c>
       <c r="D55" s="3">
-        <v>90.331270000000004</v>
+        <v>86.078090000000003</v>
       </c>
       <c r="E55" s="3">
-        <v>101.21469999999999</v>
+        <v>99.232870000000005</v>
       </c>
       <c r="F55" s="3">
-        <v>4.8797229999999997E-2</v>
+        <v>4.639658E-2</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99841610000000003</v>
+        <v>0.99862240000000002</v>
       </c>
       <c r="H55" s="3">
-        <v>6.7699529999999994E-2</v>
+        <v>6.4436489999999999E-2</v>
       </c>
       <c r="I55" s="3">
-        <v>0.88840759999999996</v>
+        <v>1.2507349999999999</v>
       </c>
       <c r="J55" s="3">
-        <v>19.438949999999998</v>
+        <v>18.05809</v>
       </c>
       <c r="K55" s="3">
-        <v>7.930059</v>
+        <v>9.5908460000000009</v>
       </c>
       <c r="L55" s="3">
-        <v>18.915410000000001</v>
+        <v>22.161169999999998</v>
       </c>
       <c r="M55" s="3">
-        <v>5.5753870000000001</v>
+        <v>6.743036</v>
       </c>
       <c r="N55" s="3">
-        <v>1.0488660000000001</v>
+        <v>1.026365</v>
       </c>
       <c r="O55" s="3">
-        <v>996.52660000000003</v>
+        <v>996.55880000000002</v>
       </c>
       <c r="P55" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847270819999999</v>
       </c>
       <c r="Q55" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179363539999997</v>
       </c>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45131.576388888891</v>
+        <v>45131.576631944445</v>
       </c>
       <c r="B56" s="3">
-        <v>10.24</v>
+        <v>11.153</v>
       </c>
       <c r="C56" s="3">
-        <v>9.202337</v>
+        <v>10.389379999999999</v>
       </c>
       <c r="D56" s="3">
-        <v>90.221860000000007</v>
+        <v>86.013900000000007</v>
       </c>
       <c r="E56" s="3">
-        <v>101.1832</v>
+        <v>99.136309999999995</v>
       </c>
       <c r="F56" s="3">
-        <v>4.8851699999999998E-2</v>
+        <v>4.6349969999999997E-2</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99842549999999997</v>
+        <v>0.99862030000000002</v>
       </c>
       <c r="H56" s="3">
-        <v>6.7773130000000001E-2</v>
+        <v>6.4432000000000003E-2</v>
       </c>
       <c r="I56" s="3">
-        <v>0.89545699999999995</v>
+        <v>1.2658659999999999</v>
       </c>
       <c r="J56" s="3">
-        <v>19.384540000000001</v>
+        <v>18.07328</v>
       </c>
       <c r="K56" s="3">
-        <v>7.98123</v>
+        <v>9.61965</v>
       </c>
       <c r="L56" s="3">
-        <v>19.033380000000001</v>
+        <v>22.193660000000001</v>
       </c>
       <c r="M56" s="3">
-        <v>5.6113629999999999</v>
+        <v>6.763287</v>
       </c>
       <c r="N56" s="3">
-        <v>1.047469</v>
+        <v>1.003347</v>
       </c>
       <c r="O56" s="3">
-        <v>996.52750000000003</v>
+        <v>996.56719999999996</v>
       </c>
       <c r="P56" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847270819999999</v>
       </c>
       <c r="Q56" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179363539999997</v>
       </c>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45131.57640046296</v>
+        <v>45131.576643518521</v>
       </c>
       <c r="B57" s="3">
-        <v>10.24743</v>
+        <v>11.17862</v>
       </c>
       <c r="C57" s="3">
-        <v>9.2212099999999992</v>
+        <v>10.413880000000001</v>
       </c>
       <c r="D57" s="3">
-        <v>90.112449999999995</v>
+        <v>86.010210000000001</v>
       </c>
       <c r="E57" s="3">
-        <v>101.15170000000001</v>
+        <v>99.130179999999996</v>
       </c>
       <c r="F57" s="3">
-        <v>4.8906169999999999E-2</v>
+        <v>4.6347010000000001E-2</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99843499999999996</v>
+        <v>0.99862019999999996</v>
       </c>
       <c r="H57" s="3">
-        <v>6.7846729999999994E-2</v>
+        <v>6.4429769999999997E-2</v>
       </c>
       <c r="I57" s="3">
-        <v>0.90250640000000004</v>
+        <v>1.2685550000000001</v>
       </c>
       <c r="J57" s="3">
-        <v>19.33013</v>
+        <v>18.075009999999999</v>
       </c>
       <c r="K57" s="3">
-        <v>8.0324000000000009</v>
+        <v>9.6213560000000005</v>
       </c>
       <c r="L57" s="3">
-        <v>19.151350000000001</v>
+        <v>22.195920000000001</v>
       </c>
       <c r="M57" s="3">
-        <v>5.6473389999999997</v>
+        <v>6.7644869999999999</v>
       </c>
       <c r="N57" s="3">
-        <v>1.0460719999999999</v>
+        <v>1.0019690000000001</v>
       </c>
       <c r="O57" s="3">
-        <v>996.52840000000003</v>
+        <v>996.56880000000001</v>
       </c>
       <c r="P57" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847261009999997</v>
       </c>
       <c r="Q57" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179359919999996</v>
       </c>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45131.576412037037</v>
+        <v>45131.576655092591</v>
       </c>
       <c r="B58" s="3">
-        <v>9.8523390000000006</v>
+        <v>11.20424</v>
       </c>
       <c r="C58" s="3">
-        <v>9.0651779999999995</v>
+        <v>10.43838</v>
       </c>
       <c r="D58" s="3">
-        <v>89.263760000000005</v>
+        <v>86.006519999999995</v>
       </c>
       <c r="E58" s="3">
-        <v>101.1185</v>
+        <v>99.124049999999997</v>
       </c>
       <c r="F58" s="3">
-        <v>4.7479399999999998E-2</v>
+        <v>4.6344059999999999E-2</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99847529999999995</v>
+        <v>0.99861999999999995</v>
       </c>
       <c r="H58" s="3">
-        <v>6.5937350000000006E-2</v>
+        <v>6.4427559999999995E-2</v>
       </c>
       <c r="I58" s="3">
-        <v>0.8735058</v>
+        <v>1.271244</v>
       </c>
       <c r="J58" s="3">
-        <v>19.111999999999998</v>
+        <v>18.076730000000001</v>
       </c>
       <c r="K58" s="3">
-        <v>8.3975720000000003</v>
+        <v>9.6230619999999991</v>
       </c>
       <c r="L58" s="3">
-        <v>19.995190000000001</v>
+        <v>22.198180000000001</v>
       </c>
       <c r="M58" s="3">
-        <v>5.9040809999999997</v>
+        <v>6.7656869999999998</v>
       </c>
       <c r="N58" s="3">
-        <v>1.0932999999999999</v>
+        <v>1.0005919999999999</v>
       </c>
       <c r="O58" s="3">
-        <v>996.50260000000003</v>
+        <v>996.57039999999995</v>
       </c>
       <c r="P58" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847261009999997</v>
       </c>
       <c r="Q58" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179359919999996</v>
       </c>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45131.576423611114</v>
+        <v>45131.576666666668</v>
       </c>
       <c r="B59" s="3">
-        <v>9.8346669999999996</v>
+        <v>11.572139999999999</v>
       </c>
       <c r="C59" s="3">
-        <v>9.0671759999999999</v>
+        <v>10.39771</v>
       </c>
       <c r="D59" s="3">
-        <v>89.212410000000006</v>
+        <v>85.825839999999999</v>
       </c>
       <c r="E59" s="3">
-        <v>101.1284</v>
+        <v>98.881079999999997</v>
       </c>
       <c r="F59" s="3">
-        <v>4.7444159999999999E-2</v>
+        <v>4.6226589999999998E-2</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99848020000000004</v>
+        <v>0.99861690000000003</v>
       </c>
       <c r="H59" s="3">
-        <v>6.5890470000000007E-2</v>
+        <v>6.4426730000000001E-2</v>
       </c>
       <c r="I59" s="3">
-        <v>0.874108</v>
+        <v>1.1348450000000001</v>
       </c>
       <c r="J59" s="3">
-        <v>19.078399999999998</v>
+        <v>18.08794</v>
       </c>
       <c r="K59" s="3">
-        <v>8.4341880000000007</v>
+        <v>9.5911399999999993</v>
       </c>
       <c r="L59" s="3">
-        <v>20.079689999999999</v>
+        <v>22.158180000000002</v>
       </c>
       <c r="M59" s="3">
-        <v>5.9298250000000001</v>
+        <v>6.7441430000000002</v>
       </c>
       <c r="N59" s="3">
-        <v>1.0949800000000001</v>
+        <v>0.98494959999999998</v>
       </c>
       <c r="O59" s="3">
-        <v>996.50189999999998</v>
+        <v>996.46460000000002</v>
       </c>
       <c r="P59" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847261009999997</v>
       </c>
       <c r="Q59" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179359919999996</v>
       </c>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45131.576435185183</v>
+        <v>45131.576678240737</v>
       </c>
       <c r="B60" s="3">
-        <v>9.8169950000000004</v>
+        <v>11.598940000000001</v>
       </c>
       <c r="C60" s="3">
-        <v>9.0691740000000003</v>
+        <v>10.40164</v>
       </c>
       <c r="D60" s="3">
-        <v>89.161060000000006</v>
+        <v>85.815290000000005</v>
       </c>
       <c r="E60" s="3">
-        <v>101.1384</v>
+        <v>98.866600000000005</v>
       </c>
       <c r="F60" s="3">
-        <v>4.740892E-2</v>
+        <v>4.6219589999999998E-2</v>
       </c>
       <c r="G60" s="3">
-        <v>0.99848510000000001</v>
+        <v>0.99861679999999997</v>
       </c>
       <c r="H60" s="3">
-        <v>6.5843600000000002E-2</v>
+        <v>6.4426499999999998E-2</v>
       </c>
       <c r="I60" s="3">
-        <v>0.87471010000000005</v>
+        <v>1.1283620000000001</v>
       </c>
       <c r="J60" s="3">
-        <v>19.044789999999999</v>
+        <v>18.088889999999999</v>
       </c>
       <c r="K60" s="3">
-        <v>8.4708039999999993</v>
+        <v>9.5901580000000006</v>
       </c>
       <c r="L60" s="3">
-        <v>20.164190000000001</v>
+        <v>22.1569</v>
       </c>
       <c r="M60" s="3">
-        <v>5.9555689999999997</v>
+        <v>6.7434979999999998</v>
       </c>
       <c r="N60" s="3">
-        <v>1.0966590000000001</v>
+        <v>0.98363929999999999</v>
       </c>
       <c r="O60" s="3">
-        <v>996.50120000000004</v>
+        <v>996.45950000000005</v>
       </c>
       <c r="P60" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847261009999997</v>
       </c>
       <c r="Q60" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179359919999996</v>
       </c>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45131.57644675926</v>
+        <v>45131.576689814814</v>
       </c>
       <c r="B61" s="3">
-        <v>10.09909</v>
+        <v>11.62574</v>
       </c>
       <c r="C61" s="3">
-        <v>8.9313120000000001</v>
+        <v>10.405570000000001</v>
       </c>
       <c r="D61" s="3">
-        <v>87.69041</v>
+        <v>85.804739999999995</v>
       </c>
       <c r="E61" s="3">
-        <v>100.1906</v>
+        <v>98.852119999999999</v>
       </c>
       <c r="F61" s="3">
-        <v>4.6698900000000002E-2</v>
+        <v>4.6212589999999998E-2</v>
       </c>
       <c r="G61" s="3">
-        <v>0.99859299999999995</v>
+        <v>0.99861659999999997</v>
       </c>
       <c r="H61" s="3">
-        <v>6.4903390000000005E-2</v>
+        <v>6.4426289999999997E-2</v>
       </c>
       <c r="I61" s="3">
-        <v>0.99362729999999999</v>
+        <v>1.1218790000000001</v>
       </c>
       <c r="J61" s="3">
-        <v>18.494599999999998</v>
+        <v>18.089839999999999</v>
       </c>
       <c r="K61" s="3">
-        <v>9.1963810000000006</v>
+        <v>9.5891749999999991</v>
       </c>
       <c r="L61" s="3">
-        <v>21.79138</v>
+        <v>22.155619999999999</v>
       </c>
       <c r="M61" s="3">
-        <v>6.4656989999999999</v>
+        <v>6.7428530000000002</v>
       </c>
       <c r="N61" s="3">
-        <v>1.089704</v>
+        <v>0.98232900000000001</v>
       </c>
       <c r="O61" s="3">
-        <v>996.55269999999996</v>
+        <v>996.45439999999996</v>
       </c>
       <c r="P61" s="3">
-        <v>46.847290739999998</v>
+        <v>46.847261009999997</v>
       </c>
       <c r="Q61" s="3">
-        <v>-91.179372709999996</v>
+        <v>-91.179359919999996</v>
       </c>
       <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45131.576458333337</v>
-      </c>
-      <c r="B62" s="3">
-        <v>10.105119999999999</v>
-      </c>
-      <c r="C62" s="3">
-        <v>8.9214140000000004</v>
-      </c>
-      <c r="D62" s="3">
-        <v>87.596119999999999</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100.1412</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.6634080000000001E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99859940000000003</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6.4817169999999993E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0.99912009999999996</v>
-      </c>
-      <c r="J62" s="3">
-        <v>18.461590000000001</v>
-      </c>
-      <c r="K62" s="3">
-        <v>9.241282</v>
-      </c>
-      <c r="L62" s="3">
-        <v>21.892659999999999</v>
-      </c>
-      <c r="M62" s="3">
-        <v>6.497268</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1.0903210000000001</v>
-      </c>
-      <c r="O62" s="3">
-        <v>996.55470000000003</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.847290739999998</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.179372709999996</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45131.576469907406</v>
-      </c>
-      <c r="B63" s="3">
-        <v>10.111140000000001</v>
-      </c>
-      <c r="C63" s="3">
-        <v>8.9115169999999999</v>
-      </c>
-      <c r="D63" s="3">
-        <v>87.501819999999995</v>
-      </c>
-      <c r="E63" s="3">
-        <v>100.09180000000001</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.6569270000000003E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99860579999999999</v>
-      </c>
-      <c r="H63" s="3">
-        <v>6.4730930000000006E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1.004613</v>
-      </c>
-      <c r="J63" s="3">
-        <v>18.428570000000001</v>
-      </c>
-      <c r="K63" s="3">
-        <v>9.2861829999999994</v>
-      </c>
-      <c r="L63" s="3">
-        <v>21.993939999999998</v>
-      </c>
-      <c r="M63" s="3">
-        <v>6.5288370000000002</v>
-      </c>
-      <c r="N63" s="3">
-        <v>1.0909390000000001</v>
-      </c>
-      <c r="O63" s="3">
-        <v>996.55679999999995</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.847290739999998</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.179372709999996</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45131.576481481483</v>
-      </c>
-      <c r="B64" s="3">
-        <v>10.33915</v>
-      </c>
-      <c r="C64" s="3">
-        <v>9.9583849999999998</v>
-      </c>
-      <c r="D64" s="3">
-        <v>86.626400000000004</v>
-      </c>
-      <c r="E64" s="3">
-        <v>99.771739999999994</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.6632510000000002E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99862019999999996</v>
-      </c>
-      <c r="H64" s="3">
-        <v>6.4817570000000005E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0.81598570000000004</v>
-      </c>
-      <c r="J64" s="3">
-        <v>18.180230000000002</v>
-      </c>
-      <c r="K64" s="3">
-        <v>9.5089559999999995</v>
-      </c>
-      <c r="L64" s="3">
-        <v>22.044519999999999</v>
-      </c>
-      <c r="M64" s="3">
-        <v>6.6854620000000002</v>
-      </c>
-      <c r="N64" s="3">
-        <v>1.0902780000000001</v>
-      </c>
-      <c r="O64" s="3">
-        <v>996.54920000000004</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45131.576493055552</v>
-      </c>
-      <c r="B65" s="3">
-        <v>10.35646</v>
-      </c>
-      <c r="C65" s="3">
-        <v>10.00895</v>
-      </c>
-      <c r="D65" s="3">
-        <v>86.550870000000003</v>
-      </c>
-      <c r="E65" s="3">
-        <v>99.736019999999996</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.6621000000000003E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99862309999999999</v>
-      </c>
-      <c r="H65" s="3">
-        <v>6.4802479999999996E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0.80885759999999995</v>
-      </c>
-      <c r="J65" s="3">
-        <v>18.155719999999999</v>
-      </c>
-      <c r="K65" s="3">
-        <v>9.5357830000000003</v>
-      </c>
-      <c r="L65" s="3">
-        <v>22.08183</v>
-      </c>
-      <c r="M65" s="3">
-        <v>6.7043220000000003</v>
-      </c>
-      <c r="N65" s="3">
-        <v>1.0901099999999999</v>
-      </c>
-      <c r="O65" s="3">
-        <v>996.54989999999998</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45131.576504629629</v>
-      </c>
-      <c r="B66" s="3">
-        <v>10.37378</v>
-      </c>
-      <c r="C66" s="3">
-        <v>10.059519999999999</v>
-      </c>
-      <c r="D66" s="3">
-        <v>86.475359999999995</v>
-      </c>
-      <c r="E66" s="3">
-        <v>99.700299999999999</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.6609490000000003E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99862620000000002</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6.4787380000000006E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0.80172940000000004</v>
-      </c>
-      <c r="J66" s="3">
-        <v>18.131209999999999</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9.5626099999999994</v>
-      </c>
-      <c r="L66" s="3">
-        <v>22.119150000000001</v>
-      </c>
-      <c r="M66" s="3">
-        <v>6.7231839999999998</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1.089942</v>
-      </c>
-      <c r="O66" s="3">
-        <v>996.55050000000006</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45131.576516203706</v>
-      </c>
-      <c r="B67" s="3">
-        <v>18.079899999999999</v>
-      </c>
-      <c r="C67" s="3">
-        <v>10.844279999999999</v>
-      </c>
-      <c r="D67" s="3">
-        <v>86.233220000000003</v>
-      </c>
-      <c r="E67" s="3">
-        <v>99.548919999999995</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.6540480000000002E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99863020000000002</v>
-      </c>
-      <c r="H67" s="3">
-        <v>6.4560930000000002E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1.1222110000000001</v>
-      </c>
-      <c r="J67" s="3">
-        <v>18.005780000000001</v>
-      </c>
-      <c r="K67" s="3">
-        <v>9.5689860000000007</v>
-      </c>
-      <c r="L67" s="3">
-        <v>22.099550000000001</v>
-      </c>
-      <c r="M67" s="3">
-        <v>6.7276670000000003</v>
-      </c>
-      <c r="N67" s="3">
-        <v>1.082292</v>
-      </c>
-      <c r="O67" s="3">
-        <v>996.49009999999998</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45131.576527777775</v>
-      </c>
-      <c r="B68" s="3">
-        <v>18.482199999999999</v>
-      </c>
-      <c r="C68" s="3">
-        <v>10.90659</v>
-      </c>
-      <c r="D68" s="3">
-        <v>86.202089999999998</v>
-      </c>
-      <c r="E68" s="3">
-        <v>99.534319999999994</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.6537839999999997E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99863069999999998</v>
-      </c>
-      <c r="H68" s="3">
-        <v>6.4550510000000005E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1.134809</v>
-      </c>
-      <c r="J68" s="3">
-        <v>17.994019999999999</v>
-      </c>
-      <c r="K68" s="3">
-        <v>9.5741160000000001</v>
-      </c>
-      <c r="L68" s="3">
-        <v>22.099930000000001</v>
-      </c>
-      <c r="M68" s="3">
-        <v>6.731274</v>
-      </c>
-      <c r="N68" s="3">
-        <v>1.0818950000000001</v>
-      </c>
-      <c r="O68" s="3">
-        <v>996.48680000000002</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45131.576539351852</v>
-      </c>
-      <c r="B69" s="3">
-        <v>18.884499999999999</v>
-      </c>
-      <c r="C69" s="3">
-        <v>10.968909999999999</v>
-      </c>
-      <c r="D69" s="3">
-        <v>86.170959999999994</v>
-      </c>
-      <c r="E69" s="3">
-        <v>99.519729999999996</v>
-      </c>
-      <c r="F69" s="3">
-        <v>4.6535189999999997E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.99863120000000005</v>
-      </c>
-      <c r="H69" s="3">
-        <v>6.4540100000000003E-2</v>
-      </c>
-      <c r="I69" s="3">
-        <v>1.1474070000000001</v>
-      </c>
-      <c r="J69" s="3">
-        <v>17.98227</v>
-      </c>
-      <c r="K69" s="3">
-        <v>9.5792459999999995</v>
-      </c>
-      <c r="L69" s="3">
-        <v>22.10031</v>
-      </c>
-      <c r="M69" s="3">
-        <v>6.7348800000000004</v>
-      </c>
-      <c r="N69" s="3">
-        <v>1.0814969999999999</v>
-      </c>
-      <c r="O69" s="3">
-        <v>996.48350000000005</v>
-      </c>
-      <c r="P69" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45131.576550925929</v>
-      </c>
-      <c r="B70" s="3">
-        <v>11.45032</v>
-      </c>
-      <c r="C70" s="3">
-        <v>9.7292620000000003</v>
-      </c>
-      <c r="D70" s="3">
-        <v>86.118480000000005</v>
-      </c>
-      <c r="E70" s="3">
-        <v>99.329939999999993</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4.644322E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99862589999999996</v>
-      </c>
-      <c r="H70" s="3">
-        <v>6.4546370000000006E-2</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1.140857</v>
-      </c>
-      <c r="J70" s="3">
-        <v>18.010290000000001</v>
-      </c>
-      <c r="K70" s="3">
-        <v>9.5777819999999991</v>
-      </c>
-      <c r="L70" s="3">
-        <v>22.126049999999999</v>
-      </c>
-      <c r="M70" s="3">
-        <v>6.7338500000000003</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1.0431060000000001</v>
-      </c>
-      <c r="O70" s="3">
-        <v>996.49919999999997</v>
-      </c>
-      <c r="P70" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45131.576562499999</v>
-      </c>
-      <c r="B71" s="3">
-        <v>11.224550000000001</v>
-      </c>
-      <c r="C71" s="3">
-        <v>9.6809890000000003</v>
-      </c>
-      <c r="D71" s="3">
-        <v>86.11054</v>
-      </c>
-      <c r="E71" s="3">
-        <v>99.316770000000005</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4.6436869999999998E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99862569999999995</v>
-      </c>
-      <c r="H71" s="3">
-        <v>6.4541810000000005E-2</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1.14727</v>
-      </c>
-      <c r="J71" s="3">
-        <v>18.009070000000001</v>
-      </c>
-      <c r="K71" s="3">
-        <v>9.5779289999999992</v>
-      </c>
-      <c r="L71" s="3">
-        <v>22.127230000000001</v>
-      </c>
-      <c r="M71" s="3">
-        <v>6.7339529999999996</v>
-      </c>
-      <c r="N71" s="3">
-        <v>1.040945</v>
-      </c>
-      <c r="O71" s="3">
-        <v>996.49879999999996</v>
-      </c>
-      <c r="P71" s="3">
-        <v>46.847280869999999</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>-91.179368350000004</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45131.576574074075</v>
-      </c>
-      <c r="B72" s="3">
-        <v>10.99878</v>
-      </c>
-      <c r="C72" s="3">
-        <v>9.6327149999999993</v>
-      </c>
-      <c r="D72" s="3">
-        <v>86.102609999999999</v>
-      </c>
-      <c r="E72" s="3">
-        <v>99.303610000000006</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.6430520000000003E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.99862550000000005</v>
-      </c>
-      <c r="H72" s="3">
-        <v>6.4537239999999996E-2</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1.1536839999999999</v>
-      </c>
-      <c r="J72" s="3">
-        <v>18.007840000000002</v>
-      </c>
-      <c r="K72" s="3">
-        <v>9.5780740000000009</v>
-      </c>
-      <c r="L72" s="3">
-        <v>22.128409999999999</v>
-      </c>
-      <c r="M72" s="3">
-        <v>6.7340559999999998</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1.0387839999999999</v>
-      </c>
-      <c r="O72" s="3">
-        <v>996.49839999999995</v>
-      </c>
-      <c r="P72" s="3">
-        <v>46.847270819999999</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-91.179363539999997</v>
-      </c>
-      <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45131.576585648145</v>
-      </c>
-      <c r="B73" s="3">
-        <v>11.08118</v>
-      </c>
-      <c r="C73" s="3">
-        <v>10.11065</v>
-      </c>
-      <c r="D73" s="3">
-        <v>86.084299999999999</v>
-      </c>
-      <c r="E73" s="3">
-        <v>99.252750000000006</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4.640611E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99862309999999999</v>
-      </c>
-      <c r="H73" s="3">
-        <v>6.4449709999999993E-2</v>
-      </c>
-      <c r="I73" s="3">
-        <v>1.2381500000000001</v>
-      </c>
-      <c r="J73" s="3">
-        <v>18.04965</v>
-      </c>
-      <c r="K73" s="3">
-        <v>9.5891249999999992</v>
-      </c>
-      <c r="L73" s="3">
-        <v>22.155270000000002</v>
-      </c>
-      <c r="M73" s="3">
-        <v>6.7418259999999997</v>
-      </c>
-      <c r="N73" s="3">
-        <v>1.0301309999999999</v>
-      </c>
-      <c r="O73" s="3">
-        <v>996.54960000000005</v>
-      </c>
-      <c r="P73" s="3">
-        <v>46.847270819999999</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>-91.179363539999997</v>
-      </c>
-      <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45131.576597222222</v>
-      </c>
-      <c r="B74" s="3">
-        <v>10.92783</v>
-      </c>
-      <c r="C74" s="3">
-        <v>10.109920000000001</v>
-      </c>
-      <c r="D74" s="3">
-        <v>86.082229999999996</v>
-      </c>
-      <c r="E74" s="3">
-        <v>99.246120000000005</v>
-      </c>
-      <c r="F74" s="3">
-        <v>4.6402930000000002E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99862280000000003</v>
-      </c>
-      <c r="H74" s="3">
-        <v>6.4445299999999997E-2</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1.242345</v>
-      </c>
-      <c r="J74" s="3">
-        <v>18.05246</v>
-      </c>
-      <c r="K74" s="3">
-        <v>9.5896989999999995</v>
-      </c>
-      <c r="L74" s="3">
-        <v>22.157240000000002</v>
-      </c>
-      <c r="M74" s="3">
-        <v>6.742229</v>
-      </c>
-      <c r="N74" s="3">
-        <v>1.028875</v>
-      </c>
-      <c r="O74" s="3">
-        <v>996.55269999999996</v>
-      </c>
-      <c r="P74" s="3">
-        <v>46.847270819999999</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>-91.179363539999997</v>
-      </c>
-      <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45131.576608796298</v>
-      </c>
-      <c r="B75" s="3">
-        <v>10.774480000000001</v>
-      </c>
-      <c r="C75" s="3">
-        <v>10.10919</v>
-      </c>
-      <c r="D75" s="3">
-        <v>86.080160000000006</v>
-      </c>
-      <c r="E75" s="3">
-        <v>99.239490000000004</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4.6399759999999998E-2</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.99862260000000003</v>
-      </c>
-      <c r="H75" s="3">
-        <v>6.4440890000000001E-2</v>
-      </c>
-      <c r="I75" s="3">
-        <v>1.24654</v>
-      </c>
-      <c r="J75" s="3">
-        <v>18.05527</v>
-      </c>
-      <c r="K75" s="3">
-        <v>9.5902720000000006</v>
-      </c>
-      <c r="L75" s="3">
-        <v>22.159199999999998</v>
-      </c>
-      <c r="M75" s="3">
-        <v>6.7426320000000004</v>
-      </c>
-      <c r="N75" s="3">
-        <v>1.02762</v>
-      </c>
-      <c r="O75" s="3">
-        <v>996.5557</v>
-      </c>
-      <c r="P75" s="3">
-        <v>46.847270819999999</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>-91.179363539999997</v>
-      </c>
-      <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45131.576620370368</v>
-      </c>
-      <c r="B76" s="3">
-        <v>10.621130000000001</v>
-      </c>
-      <c r="C76" s="3">
-        <v>10.108459999999999</v>
-      </c>
-      <c r="D76" s="3">
-        <v>86.078090000000003</v>
-      </c>
-      <c r="E76" s="3">
-        <v>99.232870000000005</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4.639658E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99862240000000002</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6.4436489999999999E-2</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1.2507349999999999</v>
-      </c>
-      <c r="J76" s="3">
-        <v>18.05809</v>
-      </c>
-      <c r="K76" s="3">
-        <v>9.5908460000000009</v>
-      </c>
-      <c r="L76" s="3">
-        <v>22.161169999999998</v>
-      </c>
-      <c r="M76" s="3">
-        <v>6.743036</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1.026365</v>
-      </c>
-      <c r="O76" s="3">
-        <v>996.55880000000002</v>
-      </c>
-      <c r="P76" s="3">
-        <v>46.847270819999999</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-91.179363539999997</v>
-      </c>
-      <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45131.576631944445</v>
-      </c>
-      <c r="B77" s="3">
-        <v>11.153</v>
-      </c>
-      <c r="C77" s="3">
-        <v>10.389379999999999</v>
-      </c>
-      <c r="D77" s="3">
-        <v>86.013900000000007</v>
-      </c>
-      <c r="E77" s="3">
-        <v>99.136309999999995</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4.6349969999999997E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99862030000000002</v>
-      </c>
-      <c r="H77" s="3">
-        <v>6.4432000000000003E-2</v>
-      </c>
-      <c r="I77" s="3">
-        <v>1.2658659999999999</v>
-      </c>
-      <c r="J77" s="3">
-        <v>18.07328</v>
-      </c>
-      <c r="K77" s="3">
-        <v>9.61965</v>
-      </c>
-      <c r="L77" s="3">
-        <v>22.193660000000001</v>
-      </c>
-      <c r="M77" s="3">
-        <v>6.763287</v>
-      </c>
-      <c r="N77" s="3">
-        <v>1.003347</v>
-      </c>
-      <c r="O77" s="3">
-        <v>996.56719999999996</v>
-      </c>
-      <c r="P77" s="3">
-        <v>46.847270819999999</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>-91.179363539999997</v>
-      </c>
-      <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45131.576643518521</v>
-      </c>
-      <c r="B78" s="3">
-        <v>11.17862</v>
-      </c>
-      <c r="C78" s="3">
-        <v>10.413880000000001</v>
-      </c>
-      <c r="D78" s="3">
-        <v>86.010210000000001</v>
-      </c>
-      <c r="E78" s="3">
-        <v>99.130179999999996</v>
-      </c>
-      <c r="F78" s="3">
-        <v>4.6347010000000001E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.99862019999999996</v>
-      </c>
-      <c r="H78" s="3">
-        <v>6.4429769999999997E-2</v>
-      </c>
-      <c r="I78" s="3">
-        <v>1.2685550000000001</v>
-      </c>
-      <c r="J78" s="3">
-        <v>18.075009999999999</v>
-      </c>
-      <c r="K78" s="3">
-        <v>9.6213560000000005</v>
-      </c>
-      <c r="L78" s="3">
-        <v>22.195920000000001</v>
-      </c>
-      <c r="M78" s="3">
-        <v>6.7644869999999999</v>
-      </c>
-      <c r="N78" s="3">
-        <v>1.0019690000000001</v>
-      </c>
-      <c r="O78" s="3">
-        <v>996.56880000000001</v>
-      </c>
-      <c r="P78" s="3">
-        <v>46.847261009999997</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>-91.179359919999996</v>
-      </c>
-      <c r="R78" s="3"/>
-    </row>
-    <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45131.576655092591</v>
-      </c>
-      <c r="B79" s="3">
-        <v>11.20424</v>
-      </c>
-      <c r="C79" s="3">
-        <v>10.43838</v>
-      </c>
-      <c r="D79" s="3">
-        <v>86.006519999999995</v>
-      </c>
-      <c r="E79" s="3">
-        <v>99.124049999999997</v>
-      </c>
-      <c r="F79" s="3">
-        <v>4.6344059999999999E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99861999999999995</v>
-      </c>
-      <c r="H79" s="3">
-        <v>6.4427559999999995E-2</v>
-      </c>
-      <c r="I79" s="3">
-        <v>1.271244</v>
-      </c>
-      <c r="J79" s="3">
-        <v>18.076730000000001</v>
-      </c>
-      <c r="K79" s="3">
-        <v>9.6230619999999991</v>
-      </c>
-      <c r="L79" s="3">
-        <v>22.198180000000001</v>
-      </c>
-      <c r="M79" s="3">
-        <v>6.7656869999999998</v>
-      </c>
-      <c r="N79" s="3">
-        <v>1.0005919999999999</v>
-      </c>
-      <c r="O79" s="3">
-        <v>996.57039999999995</v>
-      </c>
-      <c r="P79" s="3">
-        <v>46.847261009999997</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>-91.179359919999996</v>
-      </c>
-      <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45131.576666666668</v>
-      </c>
-      <c r="B80" s="3">
-        <v>11.572139999999999</v>
-      </c>
-      <c r="C80" s="3">
-        <v>10.39771</v>
-      </c>
-      <c r="D80" s="3">
-        <v>85.825839999999999</v>
-      </c>
-      <c r="E80" s="3">
-        <v>98.881079999999997</v>
-      </c>
-      <c r="F80" s="3">
-        <v>4.6226589999999998E-2</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99861690000000003</v>
-      </c>
-      <c r="H80" s="3">
-        <v>6.4426730000000001E-2</v>
-      </c>
-      <c r="I80" s="3">
-        <v>1.1348450000000001</v>
-      </c>
-      <c r="J80" s="3">
-        <v>18.08794</v>
-      </c>
-      <c r="K80" s="3">
-        <v>9.5911399999999993</v>
-      </c>
-      <c r="L80" s="3">
-        <v>22.158180000000002</v>
-      </c>
-      <c r="M80" s="3">
-        <v>6.7441430000000002</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.98494959999999998</v>
-      </c>
-      <c r="O80" s="3">
-        <v>996.46460000000002</v>
-      </c>
-      <c r="P80" s="3">
-        <v>46.847261009999997</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>-91.179359919999996</v>
-      </c>
-      <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45131.576678240737</v>
-      </c>
-      <c r="B81" s="3">
-        <v>11.598940000000001</v>
-      </c>
-      <c r="C81" s="3">
-        <v>10.40164</v>
-      </c>
-      <c r="D81" s="3">
-        <v>85.815290000000005</v>
-      </c>
-      <c r="E81" s="3">
-        <v>98.866600000000005</v>
-      </c>
-      <c r="F81" s="3">
-        <v>4.6219589999999998E-2</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99861679999999997</v>
-      </c>
-      <c r="H81" s="3">
-        <v>6.4426499999999998E-2</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1.1283620000000001</v>
-      </c>
-      <c r="J81" s="3">
-        <v>18.088889999999999</v>
-      </c>
-      <c r="K81" s="3">
-        <v>9.5901580000000006</v>
-      </c>
-      <c r="L81" s="3">
-        <v>22.1569</v>
-      </c>
-      <c r="M81" s="3">
-        <v>6.7434979999999998</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.98363929999999999</v>
-      </c>
-      <c r="O81" s="3">
-        <v>996.45950000000005</v>
-      </c>
-      <c r="P81" s="3">
-        <v>46.847261009999997</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-91.179359919999996</v>
-      </c>
-      <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45131.576689814814</v>
-      </c>
-      <c r="B82" s="3">
-        <v>11.62574</v>
-      </c>
-      <c r="C82" s="3">
-        <v>10.405570000000001</v>
-      </c>
-      <c r="D82" s="3">
-        <v>85.804739999999995</v>
-      </c>
-      <c r="E82" s="3">
-        <v>98.852119999999999</v>
-      </c>
-      <c r="F82" s="3">
-        <v>4.6212589999999998E-2</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99861659999999997</v>
-      </c>
-      <c r="H82" s="3">
-        <v>6.4426289999999997E-2</v>
-      </c>
-      <c r="I82" s="3">
-        <v>1.1218790000000001</v>
-      </c>
-      <c r="J82" s="3">
-        <v>18.089839999999999</v>
-      </c>
-      <c r="K82" s="3">
-        <v>9.5891749999999991</v>
-      </c>
-      <c r="L82" s="3">
-        <v>22.155619999999999</v>
-      </c>
-      <c r="M82" s="3">
-        <v>6.7428530000000002</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.98232900000000001</v>
-      </c>
-      <c r="O82" s="3">
-        <v>996.45439999999996</v>
-      </c>
-      <c r="P82" s="3">
-        <v>46.847261009999997</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>-91.179359919999996</v>
-      </c>
-      <c r="R82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
